--- a/Katalon/Sesi02/Test Scenario.xlsx
+++ b/Katalon/Sesi02/Test Scenario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095057\Documents\BTDP\Katalon\Sesi_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095057\Documents\BTDP\Katalon\Sesi02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -883,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,9 +919,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,11 +1027,17 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1045,6 +1048,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1054,22 +1066,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1078,75 +1110,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,48 +1361,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="17" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="17" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="17" customWidth="1"/>
-    <col min="16" max="30" width="8" style="17" customWidth="1"/>
-    <col min="31" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="1" width="3.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="16" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="16" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="16" customWidth="1"/>
+    <col min="16" max="30" width="8" style="16" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60" t="s">
+      <c r="H1" s="86"/>
+      <c r="I1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="61"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -1428,16 +1425,16 @@
       <c r="AD1" s="6"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -1459,24 +1456,24 @@
       <c r="AD2" s="6"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="64" t="s">
+      <c r="H3" s="86"/>
+      <c r="I3" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1496,18 +1493,18 @@
       <c r="AD3" s="6"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -1527,30 +1524,30 @@
       <c r="AD4" s="6"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="22"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1573,16 +1570,16 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="27"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="23">
-        <v>13</v>
-      </c>
-      <c r="I6" s="24">
-        <v>6</v>
-      </c>
-      <c r="J6" s="24">
+      <c r="G6" s="90"/>
+      <c r="H6" s="22">
+        <v>18</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
+      <c r="J6" s="23">
         <v>0</v>
       </c>
       <c r="K6" s="6"/>
@@ -1610,7 +1607,7 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="27"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1618,8 +1615,8 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -1638,25 +1635,25 @@
       <c r="AD7" s="6"/>
     </row>
     <row r="8" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="75"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1670,8 +1667,8 @@
         <v>17</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1690,25 +1687,25 @@
       <c r="AD8" s="6"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="93">
+      <c r="A9" s="52">
         <v>1</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>1</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6" t="s">
         <v>19</v>
@@ -1718,8 +1715,8 @@
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1738,17 +1735,17 @@
       <c r="AD9" s="6"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" s="93"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="33">
+      <c r="A10" s="52"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="32">
         <v>2</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="66"/>
+      <c r="G10" s="78"/>
       <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1760,8 +1757,8 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -1780,17 +1777,17 @@
       <c r="AD10" s="6"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="93"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="34">
+      <c r="A11" s="52"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="33">
         <v>3</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="76"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="5" t="s">
         <v>48</v>
       </c>
@@ -1802,8 +1799,8 @@
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -1822,17 +1819,17 @@
       <c r="AD11" s="6"/>
     </row>
     <row r="12" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="93"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="33">
+      <c r="A12" s="52"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="32">
         <v>4</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="5" t="s">
         <v>30</v>
       </c>
@@ -1840,8 +1837,8 @@
       <c r="J12" s="5"/>
       <c r="K12" s="8"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -1860,17 +1857,17 @@
       <c r="AD12" s="6"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="93"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="31">
+      <c r="A13" s="52"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="30">
         <v>5</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="74"/>
       <c r="H13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1884,8 +1881,8 @@
         <v>7</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1904,23 +1901,23 @@
       <c r="AD13" s="6"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="93">
+      <c r="A14" s="52">
         <v>2</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="69" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>1</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="66"/>
+      <c r="G14" s="78"/>
       <c r="H14" s="5"/>
       <c r="I14" s="6" t="s">
         <v>19</v>
@@ -1929,9 +1926,9 @@
         <v>20</v>
       </c>
       <c r="K14" s="8"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -1950,17 +1947,17 @@
       <c r="AD14" s="6"/>
     </row>
     <row r="15" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="33">
+      <c r="A15" s="52"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="32">
         <v>2</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="66"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="5" t="s">
         <v>34</v>
       </c>
@@ -1971,9 +1968,9 @@
         <v>22</v>
       </c>
       <c r="K15" s="8"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -1992,17 +1989,17 @@
       <c r="AD15" s="6"/>
     </row>
     <row r="16" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="93"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="34">
+      <c r="A16" s="52"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="33">
         <v>3</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="76"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="5" t="s">
         <v>48</v>
       </c>
@@ -2013,9 +2010,9 @@
         <v>50</v>
       </c>
       <c r="K16" s="8"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -2034,24 +2031,24 @@
       <c r="AD16" s="6"/>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="93"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="33">
+      <c r="A17" s="52"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="32">
         <v>4</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="66"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="5"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="15"/>
+      <c r="L17" s="14"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -2072,17 +2069,17 @@
       <c r="AD17" s="6"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18" s="93"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="31">
+      <c r="A18" s="52"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="30">
         <v>5</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="68"/>
+      <c r="G18" s="74"/>
       <c r="H18" s="10" t="s">
         <v>18</v>
       </c>
@@ -2092,8 +2089,8 @@
       <c r="J18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>8</v>
+      <c r="K18" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -2116,23 +2113,23 @@
       <c r="AD18" s="6"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="93">
+      <c r="A19" s="52">
         <v>3</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="69" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <v>1</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="66"/>
+      <c r="G19" s="78"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6" t="s">
         <v>19</v>
@@ -2141,9 +2138,9 @@
         <v>20</v>
       </c>
       <c r="K19" s="8"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -2162,17 +2159,17 @@
       <c r="AD19" s="6"/>
     </row>
     <row r="20" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="93"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="33">
+      <c r="A20" s="52"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="32">
         <v>2</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="66"/>
+      <c r="G20" s="78"/>
       <c r="H20" s="5" t="s">
         <v>34</v>
       </c>
@@ -2183,9 +2180,9 @@
         <v>22</v>
       </c>
       <c r="K20" s="8"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -2204,17 +2201,17 @@
       <c r="AD20" s="6"/>
     </row>
     <row r="21" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="34">
+      <c r="A21" s="52"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="33">
         <v>3</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="76"/>
+      <c r="G21" s="81"/>
       <c r="H21" s="5" t="s">
         <v>48</v>
       </c>
@@ -2225,9 +2222,9 @@
         <v>50</v>
       </c>
       <c r="K21" s="8"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -2246,24 +2243,24 @@
       <c r="AD21" s="6"/>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="93"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="33">
+      <c r="A22" s="52"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="32">
         <v>4</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="66"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="5"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="15"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -2284,17 +2281,17 @@
       <c r="AD22" s="6"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="93"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="31">
+      <c r="A23" s="52"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="30">
         <v>5</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="68"/>
+      <c r="G23" s="74"/>
       <c r="H23" s="10" t="s">
         <v>18</v>
       </c>
@@ -2304,8 +2301,8 @@
       <c r="J23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>8</v>
+      <c r="K23" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -2328,23 +2325,23 @@
       <c r="AD23" s="6"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="93">
+      <c r="A24" s="52">
         <v>4</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="69" t="s">
+      <c r="C24" s="80"/>
+      <c r="D24" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="31">
         <v>1</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="66"/>
+      <c r="G24" s="78"/>
       <c r="H24" s="5"/>
       <c r="I24" s="6" t="s">
         <v>19</v>
@@ -2374,17 +2371,17 @@
       <c r="AD24" s="6"/>
     </row>
     <row r="25" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="93"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="33">
+      <c r="A25" s="52"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="32">
         <v>2</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="66"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="5" t="s">
         <v>34</v>
       </c>
@@ -2416,17 +2413,17 @@
       <c r="AD25" s="6"/>
     </row>
     <row r="26" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="93"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="34">
+      <c r="A26" s="52"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="33">
         <v>3</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="76"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="5" t="s">
         <v>48</v>
       </c>
@@ -2458,17 +2455,17 @@
       <c r="AD26" s="6"/>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="93"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="33">
+      <c r="A27" s="52"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="32">
         <v>4</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="F27" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="66"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="5" t="s">
         <v>33</v>
       </c>
@@ -2496,17 +2493,17 @@
       <c r="AD27" s="6"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" s="93"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="34">
+      <c r="A28" s="52"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="33">
         <v>5</v>
       </c>
-      <c r="F28" s="84" t="s">
+      <c r="F28" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="81"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="5" t="s">
         <v>18</v>
       </c>
@@ -2516,8 +2513,8 @@
       <c r="J28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="39" t="s">
-        <v>8</v>
+      <c r="K28" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -2540,33 +2537,33 @@
       <c r="AD28" s="6"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="93">
+      <c r="A29" s="52">
         <v>5</v>
       </c>
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="34">
         <v>1</v>
       </c>
-      <c r="F29" s="77" t="s">
+      <c r="F29" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="78"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="44" t="s">
+      <c r="G29" s="63"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="44" t="s">
+      <c r="J29" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="48"/>
+      <c r="K29" s="47"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -2588,27 +2585,27 @@
       <c r="AD29" s="6"/>
     </row>
     <row r="30" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="93"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="36">
+      <c r="A30" s="52"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="35">
         <v>2</v>
       </c>
-      <c r="F30" s="79" t="s">
+      <c r="F30" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="80"/>
-      <c r="H30" s="41" t="s">
+      <c r="G30" s="65"/>
+      <c r="H30" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="45"/>
+      <c r="K30" s="44"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -2630,27 +2627,27 @@
       <c r="AD30" s="6"/>
     </row>
     <row r="31" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="93"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="37">
+      <c r="A31" s="52"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="36">
         <v>3</v>
       </c>
-      <c r="F31" s="82" t="s">
+      <c r="F31" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="69"/>
-      <c r="H31" s="41" t="s">
+      <c r="G31" s="67"/>
+      <c r="H31" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K31" s="45"/>
+      <c r="K31" s="44"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -2672,23 +2669,23 @@
       <c r="AD31" s="6"/>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="93"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="36">
+      <c r="A32" s="52"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="35">
         <v>4</v>
       </c>
-      <c r="F32" s="79" t="s">
+      <c r="F32" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="80"/>
-      <c r="H32" s="41" t="s">
+      <c r="G32" s="65"/>
+      <c r="H32" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -2710,27 +2707,27 @@
       <c r="AD32" s="6"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A33" s="93"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="37">
+      <c r="A33" s="52"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="36">
         <v>5</v>
       </c>
-      <c r="F33" s="79" t="s">
+      <c r="F33" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="81"/>
-      <c r="H33" s="41" t="s">
+      <c r="G33" s="68"/>
+      <c r="H33" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="45"/>
+      <c r="K33" s="44"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -2752,23 +2749,23 @@
       <c r="AD33" s="6"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A34" s="93"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="37">
+      <c r="A34" s="52"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="36">
         <v>6</v>
       </c>
-      <c r="F34" s="85" t="s">
+      <c r="F34" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="86"/>
-      <c r="H34" s="42" t="s">
+      <c r="G34" s="70"/>
+      <c r="H34" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -2790,23 +2787,23 @@
       <c r="AD34" s="6"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A35" s="93"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="36">
+      <c r="A35" s="52"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="35">
         <v>7</v>
       </c>
-      <c r="F35" s="85" t="s">
+      <c r="F35" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="86"/>
-      <c r="H35" s="42" t="s">
+      <c r="G35" s="70"/>
+      <c r="H35" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -2828,23 +2825,23 @@
       <c r="AD35" s="6"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A36" s="93"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="37">
+      <c r="A36" s="52"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="36">
         <v>8</v>
       </c>
-      <c r="F36" s="85" t="s">
+      <c r="F36" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="86"/>
-      <c r="H36" s="42" t="s">
+      <c r="G36" s="70"/>
+      <c r="H36" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -2866,23 +2863,23 @@
       <c r="AD36" s="6"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A37" s="93"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="36">
+      <c r="A37" s="52"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="35">
         <v>9</v>
       </c>
-      <c r="F37" s="85" t="s">
+      <c r="F37" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="86"/>
-      <c r="H37" s="49">
+      <c r="G37" s="70"/>
+      <c r="H37" s="48">
         <v>44772</v>
       </c>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -2904,23 +2901,23 @@
       <c r="AD37" s="6"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A38" s="93"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="37">
+      <c r="A38" s="52"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="36">
         <v>10</v>
       </c>
-      <c r="F38" s="85" t="s">
+      <c r="F38" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="86"/>
-      <c r="H38" s="42" t="s">
+      <c r="G38" s="70"/>
+      <c r="H38" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -2942,27 +2939,27 @@
       <c r="AD38" s="6"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A39" s="93"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="37">
+      <c r="A39" s="52"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="36">
         <v>11</v>
       </c>
-      <c r="F39" s="85" t="s">
+      <c r="F39" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="86"/>
-      <c r="H39" s="42" t="s">
+      <c r="G39" s="70"/>
+      <c r="H39" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I39" s="46" t="s">
+      <c r="I39" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J39" s="46" t="s">
+      <c r="J39" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="K39" s="46"/>
+      <c r="K39" s="45"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -2984,27 +2981,27 @@
       <c r="AD39" s="6"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A40" s="93"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="36">
+      <c r="A40" s="52"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="35">
         <v>12</v>
       </c>
-      <c r="F40" s="85" t="s">
+      <c r="F40" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="86"/>
-      <c r="H40" s="42" t="s">
+      <c r="G40" s="70"/>
+      <c r="H40" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I40" s="46" t="s">
+      <c r="I40" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="46" t="s">
+      <c r="J40" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="K40" s="46"/>
+      <c r="K40" s="45"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
@@ -3026,21 +3023,21 @@
       <c r="AD40" s="6"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A41" s="93"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="38">
+      <c r="A41" s="52"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="37">
         <v>13</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47" t="s">
+      <c r="G41" s="72"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46" t="s">
         <v>7</v>
       </c>
       <c r="L41" s="6"/>
@@ -3064,31 +3061,31 @@
       <c r="AD41" s="6"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A42" s="93">
+      <c r="A42" s="52">
         <v>6</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="55" t="s">
+      <c r="C42" s="54"/>
+      <c r="D42" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="34">
         <v>1</v>
       </c>
-      <c r="F42" s="77" t="s">
+      <c r="F42" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="78"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="44" t="s">
+      <c r="G42" s="63"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="44" t="s">
+      <c r="J42" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="48"/>
+      <c r="K42" s="47"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -3110,27 +3107,27 @@
       <c r="AD42" s="6"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A43" s="93"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="36">
+      <c r="A43" s="52"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="35">
         <v>2</v>
       </c>
-      <c r="F43" s="79" t="s">
+      <c r="F43" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="80"/>
-      <c r="H43" s="41" t="s">
+      <c r="G43" s="65"/>
+      <c r="H43" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="45" t="s">
+      <c r="J43" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="45"/>
+      <c r="K43" s="44"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -3152,27 +3149,27 @@
       <c r="AD43" s="6"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A44" s="93"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="37">
+      <c r="A44" s="52"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="36">
         <v>3</v>
       </c>
-      <c r="F44" s="82" t="s">
+      <c r="F44" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="69"/>
-      <c r="H44" s="41" t="s">
+      <c r="G44" s="67"/>
+      <c r="H44" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="45" t="s">
+      <c r="I44" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J44" s="45" t="s">
+      <c r="J44" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K44" s="45"/>
+      <c r="K44" s="44"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -3194,23 +3191,23 @@
       <c r="AD44" s="6"/>
     </row>
     <row r="45" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="93"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="36">
+      <c r="A45" s="52"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="35">
         <v>4</v>
       </c>
-      <c r="F45" s="79" t="s">
+      <c r="F45" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="80"/>
-      <c r="H45" s="41" t="s">
+      <c r="G45" s="65"/>
+      <c r="H45" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
@@ -3232,27 +3229,27 @@
       <c r="AD45" s="6"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A46" s="93"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="37">
+      <c r="A46" s="52"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="36">
         <v>5</v>
       </c>
-      <c r="F46" s="79" t="s">
+      <c r="F46" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="81"/>
-      <c r="H46" s="41" t="s">
+      <c r="G46" s="68"/>
+      <c r="H46" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="45" t="s">
+      <c r="J46" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K46" s="45"/>
+      <c r="K46" s="44"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -3274,23 +3271,23 @@
       <c r="AD46" s="6"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A47" s="93"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="37">
+      <c r="A47" s="52"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="36">
         <v>6</v>
       </c>
-      <c r="F47" s="85" t="s">
+      <c r="F47" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="86"/>
-      <c r="H47" s="42" t="s">
+      <c r="G47" s="70"/>
+      <c r="H47" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -3312,23 +3309,23 @@
       <c r="AD47" s="6"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A48" s="93"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="36">
+      <c r="A48" s="52"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="35">
         <v>7</v>
       </c>
-      <c r="F48" s="85" t="s">
+      <c r="F48" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="86"/>
-      <c r="H48" s="42" t="s">
+      <c r="G48" s="70"/>
+      <c r="H48" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -3350,23 +3347,23 @@
       <c r="AD48" s="6"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A49" s="93"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="37">
+      <c r="A49" s="52"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="36">
         <v>8</v>
       </c>
-      <c r="F49" s="85" t="s">
+      <c r="F49" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="86"/>
-      <c r="H49" s="42" t="s">
+      <c r="G49" s="70"/>
+      <c r="H49" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -3388,23 +3385,23 @@
       <c r="AD49" s="6"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A50" s="93"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="36">
+      <c r="A50" s="52"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="35">
         <v>9</v>
       </c>
-      <c r="F50" s="85" t="s">
+      <c r="F50" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="86"/>
-      <c r="H50" s="49">
+      <c r="G50" s="70"/>
+      <c r="H50" s="48">
         <v>44772</v>
       </c>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -3426,23 +3423,23 @@
       <c r="AD50" s="6"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A51" s="93"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="37">
+      <c r="A51" s="52"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="36">
         <v>10</v>
       </c>
-      <c r="F51" s="85" t="s">
+      <c r="F51" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G51" s="86"/>
-      <c r="H51" s="42" t="s">
+      <c r="G51" s="70"/>
+      <c r="H51" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -3464,27 +3461,27 @@
       <c r="AD51" s="6"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A52" s="93"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="37">
+      <c r="A52" s="52"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="36">
         <v>11</v>
       </c>
-      <c r="F52" s="85" t="s">
+      <c r="F52" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="86"/>
-      <c r="H52" s="42" t="s">
+      <c r="G52" s="70"/>
+      <c r="H52" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I52" s="46" t="s">
+      <c r="I52" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J52" s="46" t="s">
+      <c r="J52" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="K52" s="46"/>
+      <c r="K52" s="45"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -3506,27 +3503,27 @@
       <c r="AD52" s="6"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A53" s="93"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="36">
+      <c r="A53" s="52"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="35">
         <v>12</v>
       </c>
-      <c r="F53" s="85" t="s">
+      <c r="F53" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="86"/>
-      <c r="H53" s="42" t="s">
+      <c r="G53" s="70"/>
+      <c r="H53" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I53" s="46" t="s">
+      <c r="I53" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J53" s="46" t="s">
+      <c r="J53" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="K53" s="46"/>
+      <c r="K53" s="45"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -3548,21 +3545,21 @@
       <c r="AD53" s="6"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A54" s="93"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="38">
+      <c r="A54" s="52"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="37">
         <v>13</v>
       </c>
-      <c r="F54" s="50" t="s">
+      <c r="F54" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47" t="s">
+      <c r="G54" s="72"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46" t="s">
         <v>7</v>
       </c>
       <c r="L54" s="6"/>
@@ -3586,31 +3583,31 @@
       <c r="AD54" s="6"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A55" s="93">
+      <c r="A55" s="52">
         <v>7</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="55" t="s">
+      <c r="C55" s="54"/>
+      <c r="D55" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E55" s="34">
         <v>1</v>
       </c>
-      <c r="F55" s="77" t="s">
+      <c r="F55" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G55" s="78"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="44" t="s">
+      <c r="G55" s="63"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J55" s="44" t="s">
+      <c r="J55" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K55" s="48"/>
+      <c r="K55" s="47"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -3632,27 +3629,27 @@
       <c r="AD55" s="6"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A56" s="93"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="36">
+      <c r="A56" s="52"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="35">
         <v>2</v>
       </c>
-      <c r="F56" s="79" t="s">
+      <c r="F56" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G56" s="80"/>
-      <c r="H56" s="41" t="s">
+      <c r="G56" s="65"/>
+      <c r="H56" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I56" s="45" t="s">
+      <c r="I56" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J56" s="45" t="s">
+      <c r="J56" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K56" s="45"/>
+      <c r="K56" s="44"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -3674,27 +3671,27 @@
       <c r="AD56" s="6"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A57" s="93"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="37">
+      <c r="A57" s="52"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="36">
         <v>3</v>
       </c>
-      <c r="F57" s="82" t="s">
+      <c r="F57" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="69"/>
-      <c r="H57" s="41" t="s">
+      <c r="G57" s="67"/>
+      <c r="H57" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I57" s="45" t="s">
+      <c r="I57" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J57" s="45" t="s">
+      <c r="J57" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="45"/>
+      <c r="K57" s="44"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -3716,23 +3713,23 @@
       <c r="AD57" s="6"/>
     </row>
     <row r="58" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A58" s="93"/>
-      <c r="B58" s="90"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="36">
+      <c r="A58" s="52"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="35">
         <v>4</v>
       </c>
-      <c r="F58" s="79" t="s">
+      <c r="F58" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G58" s="80"/>
-      <c r="H58" s="41" t="s">
+      <c r="G58" s="65"/>
+      <c r="H58" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -3754,27 +3751,27 @@
       <c r="AD58" s="6"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A59" s="93"/>
-      <c r="B59" s="90"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="37">
+      <c r="A59" s="52"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="36">
         <v>5</v>
       </c>
-      <c r="F59" s="79" t="s">
+      <c r="F59" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G59" s="81"/>
-      <c r="H59" s="41" t="s">
+      <c r="G59" s="68"/>
+      <c r="H59" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="45" t="s">
+      <c r="I59" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J59" s="45" t="s">
+      <c r="J59" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K59" s="45"/>
+      <c r="K59" s="44"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -3796,23 +3793,23 @@
       <c r="AD59" s="6"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A60" s="93"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="37">
+      <c r="A60" s="52"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="36">
         <v>6</v>
       </c>
-      <c r="F60" s="85" t="s">
+      <c r="F60" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G60" s="86"/>
-      <c r="H60" s="42" t="s">
+      <c r="G60" s="70"/>
+      <c r="H60" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -3834,23 +3831,23 @@
       <c r="AD60" s="6"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A61" s="93"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="36">
+      <c r="A61" s="52"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="35">
         <v>7</v>
       </c>
-      <c r="F61" s="85" t="s">
+      <c r="F61" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G61" s="86"/>
-      <c r="H61" s="42" t="s">
+      <c r="G61" s="70"/>
+      <c r="H61" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -3872,23 +3869,23 @@
       <c r="AD61" s="6"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A62" s="93"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="37">
+      <c r="A62" s="52"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="36">
         <v>8</v>
       </c>
-      <c r="F62" s="85" t="s">
+      <c r="F62" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="86"/>
-      <c r="H62" s="42" t="s">
+      <c r="G62" s="70"/>
+      <c r="H62" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -3910,23 +3907,23 @@
       <c r="AD62" s="6"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A63" s="93"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="36">
+      <c r="A63" s="52"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="35">
         <v>9</v>
       </c>
-      <c r="F63" s="85" t="s">
+      <c r="F63" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="86"/>
-      <c r="H63" s="49">
+      <c r="G63" s="70"/>
+      <c r="H63" s="48">
         <v>44772</v>
       </c>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -3948,23 +3945,23 @@
       <c r="AD63" s="6"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A64" s="93"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="37">
+      <c r="A64" s="52"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="36">
         <v>10</v>
       </c>
-      <c r="F64" s="85" t="s">
+      <c r="F64" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="86"/>
-      <c r="H64" s="42" t="s">
+      <c r="G64" s="70"/>
+      <c r="H64" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -3986,27 +3983,27 @@
       <c r="AD64" s="6"/>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A65" s="93"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="37">
+      <c r="A65" s="52"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="36">
         <v>11</v>
       </c>
-      <c r="F65" s="85" t="s">
+      <c r="F65" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G65" s="86"/>
-      <c r="H65" s="42" t="s">
+      <c r="G65" s="70"/>
+      <c r="H65" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="46" t="s">
+      <c r="I65" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J65" s="46" t="s">
+      <c r="J65" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="K65" s="46"/>
+      <c r="K65" s="45"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -4028,27 +4025,27 @@
       <c r="AD65" s="6"/>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A66" s="93"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="36">
+      <c r="A66" s="52"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="35">
         <v>12</v>
       </c>
-      <c r="F66" s="85" t="s">
+      <c r="F66" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G66" s="86"/>
-      <c r="H66" s="42" t="s">
+      <c r="G66" s="70"/>
+      <c r="H66" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I66" s="46" t="s">
+      <c r="I66" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J66" s="46" t="s">
+      <c r="J66" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="K66" s="46"/>
+      <c r="K66" s="45"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -4070,21 +4067,21 @@
       <c r="AD66" s="6"/>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A67" s="93"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="38">
+      <c r="A67" s="52"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="37">
         <v>13</v>
       </c>
-      <c r="F67" s="50" t="s">
+      <c r="F67" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G67" s="51"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47" t="s">
+      <c r="G67" s="72"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46" t="s">
         <v>7</v>
       </c>
       <c r="L67" s="6"/>
@@ -4108,31 +4105,31 @@
       <c r="AD67" s="6"/>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A68" s="93">
+      <c r="A68" s="52">
         <v>8</v>
       </c>
-      <c r="B68" s="89" t="s">
+      <c r="B68" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="53"/>
-      <c r="D68" s="55" t="s">
+      <c r="C68" s="54"/>
+      <c r="D68" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="E68" s="35">
+      <c r="E68" s="34">
         <v>1</v>
       </c>
-      <c r="F68" s="77" t="s">
+      <c r="F68" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G68" s="78"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="44" t="s">
+      <c r="G68" s="63"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="44" t="s">
+      <c r="J68" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="48"/>
+      <c r="K68" s="47"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -4154,27 +4151,27 @@
       <c r="AD68" s="6"/>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A69" s="93"/>
-      <c r="B69" s="90"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="36">
+      <c r="A69" s="52"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="35">
         <v>2</v>
       </c>
-      <c r="F69" s="79" t="s">
+      <c r="F69" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G69" s="80"/>
-      <c r="H69" s="41" t="s">
+      <c r="G69" s="65"/>
+      <c r="H69" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I69" s="45" t="s">
+      <c r="I69" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J69" s="45" t="s">
+      <c r="J69" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K69" s="45"/>
+      <c r="K69" s="44"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -4196,27 +4193,27 @@
       <c r="AD69" s="6"/>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A70" s="93"/>
-      <c r="B70" s="90"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="37">
+      <c r="A70" s="52"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="36">
         <v>3</v>
       </c>
-      <c r="F70" s="82" t="s">
+      <c r="F70" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G70" s="69"/>
-      <c r="H70" s="41" t="s">
+      <c r="G70" s="67"/>
+      <c r="H70" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I70" s="45" t="s">
+      <c r="I70" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J70" s="45" t="s">
+      <c r="J70" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K70" s="45"/>
+      <c r="K70" s="44"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -4238,23 +4235,23 @@
       <c r="AD70" s="6"/>
     </row>
     <row r="71" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A71" s="93"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="36">
+      <c r="A71" s="52"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="35">
         <v>4</v>
       </c>
-      <c r="F71" s="79" t="s">
+      <c r="F71" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G71" s="80"/>
-      <c r="H71" s="41" t="s">
+      <c r="G71" s="65"/>
+      <c r="H71" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -4276,27 +4273,27 @@
       <c r="AD71" s="6"/>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A72" s="93"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="37">
+      <c r="A72" s="52"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="36">
         <v>5</v>
       </c>
-      <c r="F72" s="79" t="s">
+      <c r="F72" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G72" s="81"/>
-      <c r="H72" s="41" t="s">
+      <c r="G72" s="68"/>
+      <c r="H72" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I72" s="45" t="s">
+      <c r="I72" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J72" s="45" t="s">
+      <c r="J72" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K72" s="45"/>
+      <c r="K72" s="44"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -4318,21 +4315,21 @@
       <c r="AD72" s="6"/>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A73" s="93"/>
-      <c r="B73" s="90"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="37">
+      <c r="A73" s="52"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="36">
         <v>6</v>
       </c>
-      <c r="F73" s="85" t="s">
+      <c r="F73" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G73" s="86"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -4354,23 +4351,23 @@
       <c r="AD73" s="6"/>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A74" s="93"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="36">
+      <c r="A74" s="52"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="35">
         <v>7</v>
       </c>
-      <c r="F74" s="85" t="s">
+      <c r="F74" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G74" s="86"/>
-      <c r="H74" s="42" t="s">
+      <c r="G74" s="70"/>
+      <c r="H74" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
@@ -4392,23 +4389,23 @@
       <c r="AD74" s="6"/>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A75" s="93"/>
-      <c r="B75" s="90"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="37">
+      <c r="A75" s="52"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="36">
         <v>8</v>
       </c>
-      <c r="F75" s="85" t="s">
+      <c r="F75" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="86"/>
-      <c r="H75" s="42" t="s">
+      <c r="G75" s="70"/>
+      <c r="H75" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
@@ -4430,23 +4427,23 @@
       <c r="AD75" s="6"/>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A76" s="93"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="36">
+      <c r="A76" s="52"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="35">
         <v>9</v>
       </c>
-      <c r="F76" s="85" t="s">
+      <c r="F76" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G76" s="86"/>
-      <c r="H76" s="49">
+      <c r="G76" s="70"/>
+      <c r="H76" s="48">
         <v>44772</v>
       </c>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -4468,23 +4465,23 @@
       <c r="AD76" s="6"/>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A77" s="93"/>
-      <c r="B77" s="90"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="37">
+      <c r="A77" s="52"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="36">
         <v>10</v>
       </c>
-      <c r="F77" s="85" t="s">
+      <c r="F77" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G77" s="86"/>
-      <c r="H77" s="42" t="s">
+      <c r="G77" s="70"/>
+      <c r="H77" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="46"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
@@ -4506,27 +4503,27 @@
       <c r="AD77" s="6"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A78" s="93"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="37">
+      <c r="A78" s="52"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="36">
         <v>11</v>
       </c>
-      <c r="F78" s="85" t="s">
+      <c r="F78" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G78" s="86"/>
-      <c r="H78" s="42" t="s">
+      <c r="G78" s="70"/>
+      <c r="H78" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I78" s="46" t="s">
+      <c r="I78" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="J78" s="46" t="s">
+      <c r="J78" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="K78" s="46"/>
+      <c r="K78" s="45"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -4548,27 +4545,27 @@
       <c r="AD78" s="6"/>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A79" s="93"/>
-      <c r="B79" s="90"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="36">
+      <c r="A79" s="52"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="35">
         <v>12</v>
       </c>
-      <c r="F79" s="85" t="s">
+      <c r="F79" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G79" s="86"/>
-      <c r="H79" s="42" t="s">
+      <c r="G79" s="70"/>
+      <c r="H79" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I79" s="46" t="s">
+      <c r="I79" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="J79" s="46" t="s">
+      <c r="J79" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="K79" s="46"/>
+      <c r="K79" s="45"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -4590,22 +4587,22 @@
       <c r="AD79" s="6"/>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A80" s="93"/>
-      <c r="B80" s="91"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="38">
+      <c r="A80" s="52"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="37">
         <v>13</v>
       </c>
-      <c r="F80" s="50" t="s">
+      <c r="F80" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G80" s="51"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="39" t="s">
-        <v>8</v>
+      <c r="G80" s="72"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
@@ -4628,33 +4625,33 @@
       <c r="AD80" s="6"/>
     </row>
     <row r="81" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="93">
+      <c r="A81" s="52">
         <v>9</v>
       </c>
-      <c r="B81" s="89" t="s">
+      <c r="B81" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="52" t="s">
+      <c r="C81" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="55" t="s">
+      <c r="D81" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="E81" s="35">
+      <c r="E81" s="34">
         <v>1</v>
       </c>
-      <c r="F81" s="77" t="s">
+      <c r="F81" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G81" s="78"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="44" t="s">
+      <c r="G81" s="63"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J81" s="44" t="s">
+      <c r="J81" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K81" s="48"/>
+      <c r="K81" s="47"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
@@ -4676,27 +4673,27 @@
       <c r="AD81" s="6"/>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A82" s="93"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="36">
+      <c r="A82" s="52"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="35">
         <v>2</v>
       </c>
-      <c r="F82" s="79" t="s">
+      <c r="F82" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G82" s="80"/>
-      <c r="H82" s="41" t="s">
+      <c r="G82" s="65"/>
+      <c r="H82" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I82" s="45" t="s">
+      <c r="I82" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J82" s="45" t="s">
+      <c r="J82" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K82" s="45"/>
+      <c r="K82" s="44"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
@@ -4718,27 +4715,27 @@
       <c r="AD82" s="6"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A83" s="93"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="37">
+      <c r="A83" s="52"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="36">
         <v>3</v>
       </c>
-      <c r="F83" s="82" t="s">
+      <c r="F83" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G83" s="69"/>
-      <c r="H83" s="41" t="s">
+      <c r="G83" s="67"/>
+      <c r="H83" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I83" s="45" t="s">
+      <c r="I83" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J83" s="45" t="s">
+      <c r="J83" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K83" s="45"/>
+      <c r="K83" s="44"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
@@ -4760,23 +4757,23 @@
       <c r="AD83" s="6"/>
     </row>
     <row r="84" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A84" s="93"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="36">
+      <c r="A84" s="52"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="35">
         <v>4</v>
       </c>
-      <c r="F84" s="79" t="s">
+      <c r="F84" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G84" s="80"/>
-      <c r="H84" s="41" t="s">
+      <c r="G84" s="65"/>
+      <c r="H84" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="45"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -4798,27 +4795,27 @@
       <c r="AD84" s="6"/>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A85" s="93"/>
-      <c r="B85" s="90"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="37">
+      <c r="A85" s="52"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="36">
         <v>5</v>
       </c>
-      <c r="F85" s="79" t="s">
+      <c r="F85" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G85" s="81"/>
-      <c r="H85" s="41" t="s">
+      <c r="G85" s="68"/>
+      <c r="H85" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I85" s="45" t="s">
+      <c r="I85" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J85" s="45" t="s">
+      <c r="J85" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K85" s="45"/>
+      <c r="K85" s="44"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
@@ -4840,23 +4837,23 @@
       <c r="AD85" s="6"/>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A86" s="93"/>
-      <c r="B86" s="90"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="37">
+      <c r="A86" s="52"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="36">
         <v>6</v>
       </c>
-      <c r="F86" s="85" t="s">
+      <c r="F86" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G86" s="86"/>
-      <c r="H86" s="42" t="s">
+      <c r="G86" s="70"/>
+      <c r="H86" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I86" s="46"/>
-      <c r="J86" s="46"/>
-      <c r="K86" s="46"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
@@ -4878,23 +4875,23 @@
       <c r="AD86" s="6"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A87" s="93"/>
-      <c r="B87" s="90"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="36">
+      <c r="A87" s="52"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="35">
         <v>7</v>
       </c>
-      <c r="F87" s="85" t="s">
+      <c r="F87" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="G87" s="86"/>
-      <c r="H87" s="42" t="s">
+      <c r="G87" s="70"/>
+      <c r="H87" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I87" s="46"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="46"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
@@ -4916,23 +4913,23 @@
       <c r="AD87" s="6"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A88" s="93"/>
-      <c r="B88" s="90"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="37">
+      <c r="A88" s="52"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="36">
         <v>8</v>
       </c>
-      <c r="F88" s="85" t="s">
+      <c r="F88" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G88" s="86"/>
-      <c r="H88" s="42" t="s">
+      <c r="G88" s="70"/>
+      <c r="H88" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I88" s="46"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="46"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="45"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
@@ -4954,23 +4951,23 @@
       <c r="AD88" s="6"/>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A89" s="93"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="36">
+      <c r="A89" s="52"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="35">
         <v>9</v>
       </c>
-      <c r="F89" s="85" t="s">
+      <c r="F89" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G89" s="86"/>
-      <c r="H89" s="49">
+      <c r="G89" s="70"/>
+      <c r="H89" s="48">
         <v>44772</v>
       </c>
-      <c r="I89" s="46"/>
-      <c r="J89" s="46"/>
-      <c r="K89" s="46"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="45"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
@@ -4992,23 +4989,23 @@
       <c r="AD89" s="6"/>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A90" s="93"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="37">
+      <c r="A90" s="52"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="36">
         <v>10</v>
       </c>
-      <c r="F90" s="85" t="s">
+      <c r="F90" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G90" s="86"/>
-      <c r="H90" s="42" t="s">
+      <c r="G90" s="70"/>
+      <c r="H90" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I90" s="46"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="46"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="45"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
@@ -5030,27 +5027,27 @@
       <c r="AD90" s="6"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A91" s="93"/>
-      <c r="B91" s="90"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="37">
+      <c r="A91" s="52"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="36">
         <v>11</v>
       </c>
-      <c r="F91" s="85" t="s">
+      <c r="F91" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G91" s="86"/>
-      <c r="H91" s="42" t="s">
+      <c r="G91" s="70"/>
+      <c r="H91" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I91" s="46" t="s">
+      <c r="I91" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J91" s="46" t="s">
+      <c r="J91" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="K91" s="46"/>
+      <c r="K91" s="45"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
@@ -5072,27 +5069,27 @@
       <c r="AD91" s="6"/>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A92" s="93"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="36">
+      <c r="A92" s="52"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="35">
         <v>12</v>
       </c>
-      <c r="F92" s="85" t="s">
+      <c r="F92" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G92" s="86"/>
-      <c r="H92" s="42" t="s">
+      <c r="G92" s="70"/>
+      <c r="H92" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I92" s="46" t="s">
+      <c r="I92" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J92" s="46" t="s">
+      <c r="J92" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="K92" s="46"/>
+      <c r="K92" s="45"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
@@ -5114,21 +5111,21 @@
       <c r="AD92" s="6"/>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A93" s="93"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="38">
+      <c r="A93" s="52"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="37">
         <v>13</v>
       </c>
-      <c r="F93" s="50" t="s">
+      <c r="F93" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G93" s="51"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47" t="s">
+      <c r="G93" s="72"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="46"/>
+      <c r="K93" s="46" t="s">
         <v>7</v>
       </c>
       <c r="L93" s="6"/>
@@ -5152,31 +5149,31 @@
       <c r="AD93" s="6"/>
     </row>
     <row r="94" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="93">
+      <c r="A94" s="52">
         <v>10</v>
       </c>
-      <c r="B94" s="89" t="s">
+      <c r="B94" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C94" s="53"/>
-      <c r="D94" s="55" t="s">
+      <c r="C94" s="54"/>
+      <c r="D94" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E94" s="35">
+      <c r="E94" s="34">
         <v>1</v>
       </c>
-      <c r="F94" s="77" t="s">
+      <c r="F94" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G94" s="78"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="44" t="s">
+      <c r="G94" s="63"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J94" s="44" t="s">
+      <c r="J94" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K94" s="48"/>
+      <c r="K94" s="47"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
@@ -5198,27 +5195,27 @@
       <c r="AD94" s="6"/>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A95" s="93"/>
-      <c r="B95" s="90"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="36">
+      <c r="A95" s="52"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="35">
         <v>2</v>
       </c>
-      <c r="F95" s="79" t="s">
+      <c r="F95" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G95" s="80"/>
-      <c r="H95" s="41" t="s">
+      <c r="G95" s="65"/>
+      <c r="H95" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I95" s="45" t="s">
+      <c r="I95" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J95" s="45" t="s">
+      <c r="J95" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K95" s="45"/>
+      <c r="K95" s="44"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
@@ -5240,27 +5237,27 @@
       <c r="AD95" s="6"/>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A96" s="93"/>
-      <c r="B96" s="90"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="37">
+      <c r="A96" s="52"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="36">
         <v>3</v>
       </c>
-      <c r="F96" s="82" t="s">
+      <c r="F96" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G96" s="69"/>
-      <c r="H96" s="41" t="s">
+      <c r="G96" s="67"/>
+      <c r="H96" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I96" s="45" t="s">
+      <c r="I96" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J96" s="45" t="s">
+      <c r="J96" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K96" s="45"/>
+      <c r="K96" s="44"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
@@ -5282,23 +5279,23 @@
       <c r="AD96" s="6"/>
     </row>
     <row r="97" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A97" s="93"/>
-      <c r="B97" s="90"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="36">
+      <c r="A97" s="52"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="35">
         <v>4</v>
       </c>
-      <c r="F97" s="79" t="s">
+      <c r="F97" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G97" s="80"/>
-      <c r="H97" s="41" t="s">
+      <c r="G97" s="65"/>
+      <c r="H97" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I97" s="45"/>
-      <c r="J97" s="45"/>
-      <c r="K97" s="45"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
@@ -5320,27 +5317,27 @@
       <c r="AD97" s="6"/>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A98" s="93"/>
-      <c r="B98" s="90"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="37">
+      <c r="A98" s="52"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="36">
         <v>5</v>
       </c>
-      <c r="F98" s="79" t="s">
+      <c r="F98" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G98" s="81"/>
-      <c r="H98" s="41" t="s">
+      <c r="G98" s="68"/>
+      <c r="H98" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I98" s="45" t="s">
+      <c r="I98" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J98" s="45" t="s">
+      <c r="J98" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K98" s="45"/>
+      <c r="K98" s="44"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
@@ -5362,23 +5359,23 @@
       <c r="AD98" s="6"/>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A99" s="93"/>
-      <c r="B99" s="90"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="37">
+      <c r="A99" s="52"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="36">
         <v>6</v>
       </c>
-      <c r="F99" s="85" t="s">
+      <c r="F99" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G99" s="86"/>
-      <c r="H99" s="42" t="s">
+      <c r="G99" s="70"/>
+      <c r="H99" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I99" s="46"/>
-      <c r="J99" s="46"/>
-      <c r="K99" s="46"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="45"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
@@ -5400,23 +5397,23 @@
       <c r="AD99" s="6"/>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A100" s="93"/>
-      <c r="B100" s="90"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="36">
+      <c r="A100" s="52"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="35">
         <v>7</v>
       </c>
-      <c r="F100" s="85" t="s">
+      <c r="F100" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G100" s="86"/>
-      <c r="H100" s="42" t="s">
+      <c r="G100" s="70"/>
+      <c r="H100" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I100" s="46"/>
-      <c r="J100" s="46"/>
-      <c r="K100" s="46"/>
+      <c r="I100" s="45"/>
+      <c r="J100" s="45"/>
+      <c r="K100" s="45"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
@@ -5438,23 +5435,23 @@
       <c r="AD100" s="6"/>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A101" s="93"/>
-      <c r="B101" s="90"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="37">
+      <c r="A101" s="52"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="36">
         <v>8</v>
       </c>
-      <c r="F101" s="85" t="s">
+      <c r="F101" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G101" s="86"/>
-      <c r="H101" s="42" t="s">
+      <c r="G101" s="70"/>
+      <c r="H101" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I101" s="46"/>
-      <c r="J101" s="46"/>
-      <c r="K101" s="46"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+      <c r="K101" s="45"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
@@ -5476,23 +5473,23 @@
       <c r="AD101" s="6"/>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A102" s="93"/>
-      <c r="B102" s="90"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="36">
+      <c r="A102" s="52"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="35">
         <v>9</v>
       </c>
-      <c r="F102" s="85" t="s">
+      <c r="F102" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G102" s="86"/>
-      <c r="H102" s="49">
+      <c r="G102" s="70"/>
+      <c r="H102" s="48">
         <v>44772</v>
       </c>
-      <c r="I102" s="46"/>
-      <c r="J102" s="46"/>
-      <c r="K102" s="46"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="45"/>
+      <c r="K102" s="45"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
@@ -5514,23 +5511,23 @@
       <c r="AD102" s="6"/>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A103" s="93"/>
-      <c r="B103" s="90"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="37">
+      <c r="A103" s="52"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="36">
         <v>10</v>
       </c>
-      <c r="F103" s="85" t="s">
+      <c r="F103" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G103" s="86"/>
-      <c r="H103" s="42" t="s">
+      <c r="G103" s="70"/>
+      <c r="H103" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I103" s="46"/>
-      <c r="J103" s="46"/>
-      <c r="K103" s="46"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="45"/>
+      <c r="K103" s="45"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
@@ -5552,27 +5549,27 @@
       <c r="AD103" s="6"/>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A104" s="93"/>
-      <c r="B104" s="90"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="37">
+      <c r="A104" s="52"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="36">
         <v>11</v>
       </c>
-      <c r="F104" s="85" t="s">
+      <c r="F104" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G104" s="86"/>
-      <c r="H104" s="42" t="s">
+      <c r="G104" s="70"/>
+      <c r="H104" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I104" s="46" t="s">
+      <c r="I104" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J104" s="46" t="s">
+      <c r="J104" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="K104" s="46"/>
+      <c r="K104" s="45"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
@@ -5594,27 +5591,27 @@
       <c r="AD104" s="6"/>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A105" s="93"/>
-      <c r="B105" s="90"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="36">
+      <c r="A105" s="52"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="35">
         <v>12</v>
       </c>
-      <c r="F105" s="85" t="s">
+      <c r="F105" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G105" s="86"/>
-      <c r="H105" s="42" t="s">
+      <c r="G105" s="70"/>
+      <c r="H105" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I105" s="46" t="s">
+      <c r="I105" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J105" s="46" t="s">
+      <c r="J105" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="K105" s="46"/>
+      <c r="K105" s="45"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
@@ -5636,21 +5633,21 @@
       <c r="AD105" s="6"/>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A106" s="93"/>
-      <c r="B106" s="91"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="38">
+      <c r="A106" s="52"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="37">
         <v>13</v>
       </c>
-      <c r="F106" s="50" t="s">
+      <c r="F106" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G106" s="51"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="47"/>
-      <c r="J106" s="47"/>
-      <c r="K106" s="47" t="s">
+      <c r="G106" s="72"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="46"/>
+      <c r="K106" s="46" t="s">
         <v>7</v>
       </c>
       <c r="L106" s="6"/>
@@ -5674,33 +5671,33 @@
       <c r="AD106" s="6"/>
     </row>
     <row r="107" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="93">
+      <c r="A107" s="52">
         <v>11</v>
       </c>
-      <c r="B107" s="89" t="s">
+      <c r="B107" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C107" s="52" t="s">
+      <c r="C107" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D107" s="55" t="s">
+      <c r="D107" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="E107" s="35">
+      <c r="E107" s="34">
         <v>1</v>
       </c>
-      <c r="F107" s="77" t="s">
+      <c r="F107" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G107" s="78"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="44" t="s">
+      <c r="G107" s="63"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J107" s="44" t="s">
+      <c r="J107" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K107" s="48"/>
+      <c r="K107" s="47"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
@@ -5722,27 +5719,27 @@
       <c r="AD107" s="6"/>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A108" s="93"/>
-      <c r="B108" s="90"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="36">
+      <c r="A108" s="52"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="35">
         <v>2</v>
       </c>
-      <c r="F108" s="79" t="s">
+      <c r="F108" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G108" s="80"/>
-      <c r="H108" s="41" t="s">
+      <c r="G108" s="65"/>
+      <c r="H108" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I108" s="45" t="s">
+      <c r="I108" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J108" s="45" t="s">
+      <c r="J108" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K108" s="45"/>
+      <c r="K108" s="44"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
@@ -5764,27 +5761,27 @@
       <c r="AD108" s="6"/>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A109" s="93"/>
-      <c r="B109" s="90"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="37">
+      <c r="A109" s="52"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="36">
         <v>3</v>
       </c>
-      <c r="F109" s="82" t="s">
+      <c r="F109" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G109" s="69"/>
-      <c r="H109" s="41" t="s">
+      <c r="G109" s="67"/>
+      <c r="H109" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I109" s="45" t="s">
+      <c r="I109" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J109" s="45" t="s">
+      <c r="J109" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K109" s="45"/>
+      <c r="K109" s="44"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
@@ -5806,23 +5803,23 @@
       <c r="AD109" s="6"/>
     </row>
     <row r="110" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A110" s="93"/>
-      <c r="B110" s="90"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="36">
+      <c r="A110" s="52"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="35">
         <v>4</v>
       </c>
-      <c r="F110" s="79" t="s">
+      <c r="F110" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G110" s="80"/>
-      <c r="H110" s="41" t="s">
+      <c r="G110" s="65"/>
+      <c r="H110" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I110" s="45"/>
-      <c r="J110" s="45"/>
-      <c r="K110" s="45"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="44"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
@@ -5844,27 +5841,27 @@
       <c r="AD110" s="6"/>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A111" s="93"/>
-      <c r="B111" s="90"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="37">
+      <c r="A111" s="52"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="36">
         <v>5</v>
       </c>
-      <c r="F111" s="79" t="s">
+      <c r="F111" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G111" s="81"/>
-      <c r="H111" s="41" t="s">
+      <c r="G111" s="68"/>
+      <c r="H111" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I111" s="45" t="s">
+      <c r="I111" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J111" s="45" t="s">
+      <c r="J111" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K111" s="45"/>
+      <c r="K111" s="44"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
@@ -5886,23 +5883,23 @@
       <c r="AD111" s="6"/>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A112" s="93"/>
-      <c r="B112" s="90"/>
-      <c r="C112" s="53"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="37">
+      <c r="A112" s="52"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="36">
         <v>6</v>
       </c>
-      <c r="F112" s="85" t="s">
+      <c r="F112" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G112" s="86"/>
-      <c r="H112" s="42" t="s">
+      <c r="G112" s="70"/>
+      <c r="H112" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I112" s="46"/>
-      <c r="J112" s="46"/>
-      <c r="K112" s="46"/>
+      <c r="I112" s="45"/>
+      <c r="J112" s="45"/>
+      <c r="K112" s="45"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
@@ -5924,23 +5921,23 @@
       <c r="AD112" s="6"/>
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A113" s="93"/>
-      <c r="B113" s="90"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="36">
+      <c r="A113" s="52"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="35">
         <v>7</v>
       </c>
-      <c r="F113" s="85" t="s">
+      <c r="F113" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G113" s="86"/>
-      <c r="H113" s="42" t="s">
+      <c r="G113" s="70"/>
+      <c r="H113" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
-      <c r="K113" s="46"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="45"/>
+      <c r="K113" s="45"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
@@ -5962,23 +5959,23 @@
       <c r="AD113" s="6"/>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A114" s="93"/>
-      <c r="B114" s="90"/>
-      <c r="C114" s="53"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="37">
+      <c r="A114" s="52"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="36">
         <v>8</v>
       </c>
-      <c r="F114" s="85" t="s">
+      <c r="F114" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G114" s="86"/>
-      <c r="H114" s="42" t="s">
+      <c r="G114" s="70"/>
+      <c r="H114" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I114" s="46"/>
-      <c r="J114" s="46"/>
-      <c r="K114" s="46"/>
+      <c r="I114" s="45"/>
+      <c r="J114" s="45"/>
+      <c r="K114" s="45"/>
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
@@ -6000,23 +5997,23 @@
       <c r="AD114" s="6"/>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A115" s="93"/>
-      <c r="B115" s="90"/>
-      <c r="C115" s="53"/>
-      <c r="D115" s="56"/>
-      <c r="E115" s="36">
+      <c r="A115" s="52"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="35">
         <v>9</v>
       </c>
-      <c r="F115" s="85" t="s">
+      <c r="F115" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G115" s="86"/>
-      <c r="H115" s="49">
+      <c r="G115" s="70"/>
+      <c r="H115" s="48">
         <v>44772</v>
       </c>
-      <c r="I115" s="46"/>
-      <c r="J115" s="46"/>
-      <c r="K115" s="46"/>
+      <c r="I115" s="45"/>
+      <c r="J115" s="45"/>
+      <c r="K115" s="45"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
@@ -6038,23 +6035,23 @@
       <c r="AD115" s="6"/>
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A116" s="93"/>
-      <c r="B116" s="90"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="37">
+      <c r="A116" s="52"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="36">
         <v>10</v>
       </c>
-      <c r="F116" s="85" t="s">
+      <c r="F116" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G116" s="86"/>
-      <c r="H116" s="42" t="s">
+      <c r="G116" s="70"/>
+      <c r="H116" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I116" s="46"/>
-      <c r="J116" s="46"/>
-      <c r="K116" s="46"/>
+      <c r="I116" s="45"/>
+      <c r="J116" s="45"/>
+      <c r="K116" s="45"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
@@ -6076,27 +6073,27 @@
       <c r="AD116" s="6"/>
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A117" s="93"/>
-      <c r="B117" s="90"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="37">
+      <c r="A117" s="52"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="36">
         <v>11</v>
       </c>
-      <c r="F117" s="85" t="s">
+      <c r="F117" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G117" s="86"/>
-      <c r="H117" s="42" t="s">
+      <c r="G117" s="70"/>
+      <c r="H117" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I117" s="46" t="s">
+      <c r="I117" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J117" s="46" t="s">
+      <c r="J117" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="K117" s="46"/>
+      <c r="K117" s="45"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
@@ -6118,27 +6115,27 @@
       <c r="AD117" s="6"/>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A118" s="93"/>
-      <c r="B118" s="90"/>
-      <c r="C118" s="53"/>
-      <c r="D118" s="56"/>
-      <c r="E118" s="36">
+      <c r="A118" s="52"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="35">
         <v>12</v>
       </c>
-      <c r="F118" s="85" t="s">
+      <c r="F118" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G118" s="86"/>
-      <c r="H118" s="42" t="s">
+      <c r="G118" s="70"/>
+      <c r="H118" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I118" s="46" t="s">
+      <c r="I118" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J118" s="46" t="s">
+      <c r="J118" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="K118" s="46"/>
+      <c r="K118" s="45"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
@@ -6160,21 +6157,21 @@
       <c r="AD118" s="6"/>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A119" s="93"/>
-      <c r="B119" s="91"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="38">
+      <c r="A119" s="52"/>
+      <c r="B119" s="58"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="61"/>
+      <c r="E119" s="37">
         <v>13</v>
       </c>
-      <c r="F119" s="50" t="s">
+      <c r="F119" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G119" s="51"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="47"/>
-      <c r="J119" s="47"/>
-      <c r="K119" s="47" t="s">
+      <c r="G119" s="72"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="46"/>
+      <c r="J119" s="46"/>
+      <c r="K119" s="46" t="s">
         <v>7</v>
       </c>
       <c r="L119" s="6"/>
@@ -6198,31 +6195,31 @@
       <c r="AD119" s="6"/>
     </row>
     <row r="120" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="93">
+      <c r="A120" s="52">
         <v>12</v>
       </c>
-      <c r="B120" s="89" t="s">
+      <c r="B120" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C120" s="53"/>
-      <c r="D120" s="55" t="s">
+      <c r="C120" s="54"/>
+      <c r="D120" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E120" s="35">
+      <c r="E120" s="34">
         <v>1</v>
       </c>
-      <c r="F120" s="77" t="s">
+      <c r="F120" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G120" s="78"/>
-      <c r="H120" s="40"/>
-      <c r="I120" s="44" t="s">
+      <c r="G120" s="63"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J120" s="44" t="s">
+      <c r="J120" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K120" s="48"/>
+      <c r="K120" s="47"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
@@ -6244,27 +6241,27 @@
       <c r="AD120" s="6"/>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A121" s="93"/>
-      <c r="B121" s="90"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="56"/>
-      <c r="E121" s="36">
+      <c r="A121" s="52"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="35">
         <v>2</v>
       </c>
-      <c r="F121" s="79" t="s">
+      <c r="F121" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G121" s="80"/>
-      <c r="H121" s="41" t="s">
+      <c r="G121" s="65"/>
+      <c r="H121" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I121" s="45" t="s">
+      <c r="I121" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J121" s="45" t="s">
+      <c r="J121" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K121" s="45"/>
+      <c r="K121" s="44"/>
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
       <c r="N121" s="6"/>
@@ -6286,27 +6283,27 @@
       <c r="AD121" s="6"/>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A122" s="93"/>
-      <c r="B122" s="90"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="37">
+      <c r="A122" s="52"/>
+      <c r="B122" s="57"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="60"/>
+      <c r="E122" s="36">
         <v>3</v>
       </c>
-      <c r="F122" s="82" t="s">
+      <c r="F122" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G122" s="69"/>
-      <c r="H122" s="41" t="s">
+      <c r="G122" s="67"/>
+      <c r="H122" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I122" s="45" t="s">
+      <c r="I122" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J122" s="45" t="s">
+      <c r="J122" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K122" s="45"/>
+      <c r="K122" s="44"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
@@ -6328,23 +6325,23 @@
       <c r="AD122" s="6"/>
     </row>
     <row r="123" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A123" s="93"/>
-      <c r="B123" s="90"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="56"/>
-      <c r="E123" s="36">
+      <c r="A123" s="52"/>
+      <c r="B123" s="57"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="60"/>
+      <c r="E123" s="35">
         <v>4</v>
       </c>
-      <c r="F123" s="79" t="s">
+      <c r="F123" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G123" s="80"/>
-      <c r="H123" s="41" t="s">
+      <c r="G123" s="65"/>
+      <c r="H123" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I123" s="45"/>
-      <c r="J123" s="45"/>
-      <c r="K123" s="45"/>
+      <c r="I123" s="44"/>
+      <c r="J123" s="44"/>
+      <c r="K123" s="44"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
@@ -6366,27 +6363,27 @@
       <c r="AD123" s="6"/>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A124" s="93"/>
-      <c r="B124" s="90"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="56"/>
-      <c r="E124" s="37">
+      <c r="A124" s="52"/>
+      <c r="B124" s="57"/>
+      <c r="C124" s="54"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="36">
         <v>5</v>
       </c>
-      <c r="F124" s="79" t="s">
+      <c r="F124" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G124" s="81"/>
-      <c r="H124" s="41" t="s">
+      <c r="G124" s="68"/>
+      <c r="H124" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I124" s="45" t="s">
+      <c r="I124" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J124" s="45" t="s">
+      <c r="J124" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K124" s="45"/>
+      <c r="K124" s="44"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
@@ -6408,23 +6405,23 @@
       <c r="AD124" s="6"/>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A125" s="93"/>
-      <c r="B125" s="90"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="56"/>
-      <c r="E125" s="37">
+      <c r="A125" s="52"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="60"/>
+      <c r="E125" s="36">
         <v>6</v>
       </c>
-      <c r="F125" s="85" t="s">
+      <c r="F125" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G125" s="86"/>
-      <c r="H125" s="42" t="s">
+      <c r="G125" s="70"/>
+      <c r="H125" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I125" s="46"/>
-      <c r="J125" s="46"/>
-      <c r="K125" s="46"/>
+      <c r="I125" s="45"/>
+      <c r="J125" s="45"/>
+      <c r="K125" s="45"/>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
       <c r="N125" s="6"/>
@@ -6446,23 +6443,23 @@
       <c r="AD125" s="6"/>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A126" s="93"/>
-      <c r="B126" s="90"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="56"/>
-      <c r="E126" s="36">
+      <c r="A126" s="52"/>
+      <c r="B126" s="57"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="60"/>
+      <c r="E126" s="35">
         <v>7</v>
       </c>
-      <c r="F126" s="85" t="s">
+      <c r="F126" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G126" s="86"/>
-      <c r="H126" s="42" t="s">
+      <c r="G126" s="70"/>
+      <c r="H126" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I126" s="46"/>
-      <c r="J126" s="46"/>
-      <c r="K126" s="46"/>
+      <c r="I126" s="45"/>
+      <c r="J126" s="45"/>
+      <c r="K126" s="45"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
       <c r="N126" s="6"/>
@@ -6484,23 +6481,23 @@
       <c r="AD126" s="6"/>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A127" s="93"/>
-      <c r="B127" s="90"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="56"/>
-      <c r="E127" s="37">
+      <c r="A127" s="52"/>
+      <c r="B127" s="57"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="36">
         <v>8</v>
       </c>
-      <c r="F127" s="85" t="s">
+      <c r="F127" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G127" s="86"/>
-      <c r="H127" s="42" t="s">
+      <c r="G127" s="70"/>
+      <c r="H127" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="I127" s="46"/>
-      <c r="J127" s="46"/>
-      <c r="K127" s="46"/>
+      <c r="I127" s="45"/>
+      <c r="J127" s="45"/>
+      <c r="K127" s="45"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
@@ -6522,23 +6519,23 @@
       <c r="AD127" s="6"/>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A128" s="93"/>
-      <c r="B128" s="90"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="36">
+      <c r="A128" s="52"/>
+      <c r="B128" s="57"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="60"/>
+      <c r="E128" s="35">
         <v>9</v>
       </c>
-      <c r="F128" s="85" t="s">
+      <c r="F128" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G128" s="86"/>
-      <c r="H128" s="49">
+      <c r="G128" s="70"/>
+      <c r="H128" s="48">
         <v>44772</v>
       </c>
-      <c r="I128" s="46"/>
-      <c r="J128" s="46"/>
-      <c r="K128" s="46"/>
+      <c r="I128" s="45"/>
+      <c r="J128" s="45"/>
+      <c r="K128" s="45"/>
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
       <c r="N128" s="6"/>
@@ -6560,23 +6557,23 @@
       <c r="AD128" s="6"/>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A129" s="93"/>
-      <c r="B129" s="90"/>
-      <c r="C129" s="53"/>
-      <c r="D129" s="56"/>
-      <c r="E129" s="37">
+      <c r="A129" s="52"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="54"/>
+      <c r="D129" s="60"/>
+      <c r="E129" s="36">
         <v>10</v>
       </c>
-      <c r="F129" s="85" t="s">
+      <c r="F129" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G129" s="86"/>
-      <c r="H129" s="42" t="s">
+      <c r="G129" s="70"/>
+      <c r="H129" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I129" s="46"/>
-      <c r="J129" s="46"/>
-      <c r="K129" s="46"/>
+      <c r="I129" s="45"/>
+      <c r="J129" s="45"/>
+      <c r="K129" s="45"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
@@ -6598,27 +6595,27 @@
       <c r="AD129" s="6"/>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A130" s="93"/>
-      <c r="B130" s="90"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="37">
+      <c r="A130" s="52"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="36">
         <v>11</v>
       </c>
-      <c r="F130" s="85" t="s">
+      <c r="F130" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G130" s="86"/>
-      <c r="H130" s="42" t="s">
+      <c r="G130" s="70"/>
+      <c r="H130" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I130" s="46" t="s">
+      <c r="I130" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J130" s="46" t="s">
+      <c r="J130" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="K130" s="46"/>
+      <c r="K130" s="45"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
       <c r="N130" s="6"/>
@@ -6640,27 +6637,27 @@
       <c r="AD130" s="6"/>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A131" s="93"/>
-      <c r="B131" s="90"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="36">
+      <c r="A131" s="52"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="60"/>
+      <c r="E131" s="35">
         <v>12</v>
       </c>
-      <c r="F131" s="85" t="s">
+      <c r="F131" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G131" s="86"/>
-      <c r="H131" s="42" t="s">
+      <c r="G131" s="70"/>
+      <c r="H131" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I131" s="46" t="s">
+      <c r="I131" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J131" s="46" t="s">
+      <c r="J131" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="K131" s="46"/>
+      <c r="K131" s="45"/>
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
       <c r="N131" s="6"/>
@@ -6682,21 +6679,21 @@
       <c r="AD131" s="6"/>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A132" s="93"/>
-      <c r="B132" s="91"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="38">
+      <c r="A132" s="52"/>
+      <c r="B132" s="58"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="61"/>
+      <c r="E132" s="37">
         <v>13</v>
       </c>
-      <c r="F132" s="50" t="s">
+      <c r="F132" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G132" s="51"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="47"/>
-      <c r="J132" s="47"/>
-      <c r="K132" s="47" t="s">
+      <c r="G132" s="72"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="46"/>
+      <c r="J132" s="46"/>
+      <c r="K132" s="46" t="s">
         <v>7</v>
       </c>
       <c r="L132" s="6"/>
@@ -6720,31 +6717,31 @@
       <c r="AD132" s="6"/>
     </row>
     <row r="133" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="93">
+      <c r="A133" s="52">
         <v>13</v>
       </c>
-      <c r="B133" s="89" t="s">
+      <c r="B133" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C133" s="53"/>
-      <c r="D133" s="55" t="s">
+      <c r="C133" s="54"/>
+      <c r="D133" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="E133" s="35">
+      <c r="E133" s="34">
         <v>1</v>
       </c>
-      <c r="F133" s="77" t="s">
+      <c r="F133" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G133" s="78"/>
-      <c r="H133" s="40"/>
-      <c r="I133" s="44" t="s">
+      <c r="G133" s="63"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J133" s="44" t="s">
+      <c r="J133" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K133" s="48"/>
+      <c r="K133" s="47"/>
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
       <c r="N133" s="6"/>
@@ -6766,27 +6763,27 @@
       <c r="AD133" s="6"/>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A134" s="93"/>
-      <c r="B134" s="90"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="36">
+      <c r="A134" s="52"/>
+      <c r="B134" s="57"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="60"/>
+      <c r="E134" s="35">
         <v>2</v>
       </c>
-      <c r="F134" s="79" t="s">
+      <c r="F134" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G134" s="80"/>
-      <c r="H134" s="41" t="s">
+      <c r="G134" s="65"/>
+      <c r="H134" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I134" s="45" t="s">
+      <c r="I134" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J134" s="45" t="s">
+      <c r="J134" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K134" s="45"/>
+      <c r="K134" s="44"/>
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
       <c r="N134" s="6"/>
@@ -6808,27 +6805,27 @@
       <c r="AD134" s="6"/>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A135" s="93"/>
-      <c r="B135" s="90"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="56"/>
-      <c r="E135" s="37">
+      <c r="A135" s="52"/>
+      <c r="B135" s="57"/>
+      <c r="C135" s="54"/>
+      <c r="D135" s="60"/>
+      <c r="E135" s="36">
         <v>3</v>
       </c>
-      <c r="F135" s="82" t="s">
+      <c r="F135" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G135" s="69"/>
-      <c r="H135" s="41" t="s">
+      <c r="G135" s="67"/>
+      <c r="H135" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I135" s="45" t="s">
+      <c r="I135" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J135" s="45" t="s">
+      <c r="J135" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K135" s="45"/>
+      <c r="K135" s="44"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
       <c r="N135" s="6"/>
@@ -6850,23 +6847,23 @@
       <c r="AD135" s="6"/>
     </row>
     <row r="136" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A136" s="93"/>
-      <c r="B136" s="90"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="56"/>
-      <c r="E136" s="36">
+      <c r="A136" s="52"/>
+      <c r="B136" s="57"/>
+      <c r="C136" s="54"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="35">
         <v>4</v>
       </c>
-      <c r="F136" s="79" t="s">
+      <c r="F136" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G136" s="80"/>
-      <c r="H136" s="41" t="s">
+      <c r="G136" s="65"/>
+      <c r="H136" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I136" s="45"/>
-      <c r="J136" s="45"/>
-      <c r="K136" s="45"/>
+      <c r="I136" s="44"/>
+      <c r="J136" s="44"/>
+      <c r="K136" s="44"/>
       <c r="L136" s="6"/>
       <c r="M136" s="6"/>
       <c r="N136" s="6"/>
@@ -6888,27 +6885,27 @@
       <c r="AD136" s="6"/>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A137" s="93"/>
-      <c r="B137" s="90"/>
-      <c r="C137" s="53"/>
-      <c r="D137" s="56"/>
-      <c r="E137" s="37">
+      <c r="A137" s="52"/>
+      <c r="B137" s="57"/>
+      <c r="C137" s="54"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="36">
         <v>5</v>
       </c>
-      <c r="F137" s="79" t="s">
+      <c r="F137" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G137" s="81"/>
-      <c r="H137" s="41" t="s">
+      <c r="G137" s="68"/>
+      <c r="H137" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I137" s="45" t="s">
+      <c r="I137" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J137" s="45" t="s">
+      <c r="J137" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K137" s="45"/>
+      <c r="K137" s="44"/>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
       <c r="N137" s="6"/>
@@ -6930,23 +6927,23 @@
       <c r="AD137" s="6"/>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A138" s="93"/>
-      <c r="B138" s="90"/>
-      <c r="C138" s="53"/>
-      <c r="D138" s="56"/>
-      <c r="E138" s="37">
+      <c r="A138" s="52"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="54"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="36">
         <v>6</v>
       </c>
-      <c r="F138" s="85" t="s">
+      <c r="F138" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G138" s="86"/>
-      <c r="H138" s="42" t="s">
+      <c r="G138" s="70"/>
+      <c r="H138" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I138" s="46"/>
-      <c r="J138" s="46"/>
-      <c r="K138" s="46"/>
+      <c r="I138" s="45"/>
+      <c r="J138" s="45"/>
+      <c r="K138" s="45"/>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
@@ -6968,23 +6965,23 @@
       <c r="AD138" s="6"/>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A139" s="93"/>
-      <c r="B139" s="90"/>
-      <c r="C139" s="53"/>
-      <c r="D139" s="56"/>
-      <c r="E139" s="36">
+      <c r="A139" s="52"/>
+      <c r="B139" s="57"/>
+      <c r="C139" s="54"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="35">
         <v>7</v>
       </c>
-      <c r="F139" s="85" t="s">
+      <c r="F139" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G139" s="86"/>
-      <c r="H139" s="42" t="s">
+      <c r="G139" s="70"/>
+      <c r="H139" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I139" s="46"/>
-      <c r="J139" s="46"/>
-      <c r="K139" s="46"/>
+      <c r="I139" s="45"/>
+      <c r="J139" s="45"/>
+      <c r="K139" s="45"/>
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
@@ -7006,23 +7003,23 @@
       <c r="AD139" s="6"/>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A140" s="93"/>
-      <c r="B140" s="90"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="56"/>
-      <c r="E140" s="37">
+      <c r="A140" s="52"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="54"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="36">
         <v>8</v>
       </c>
-      <c r="F140" s="85" t="s">
+      <c r="F140" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G140" s="86"/>
-      <c r="H140" s="42" t="s">
+      <c r="G140" s="70"/>
+      <c r="H140" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="I140" s="46"/>
-      <c r="J140" s="46"/>
-      <c r="K140" s="46"/>
+      <c r="I140" s="45"/>
+      <c r="J140" s="45"/>
+      <c r="K140" s="45"/>
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
@@ -7044,23 +7041,23 @@
       <c r="AD140" s="6"/>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A141" s="93"/>
-      <c r="B141" s="90"/>
-      <c r="C141" s="53"/>
-      <c r="D141" s="56"/>
-      <c r="E141" s="36">
+      <c r="A141" s="52"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="54"/>
+      <c r="D141" s="60"/>
+      <c r="E141" s="35">
         <v>9</v>
       </c>
-      <c r="F141" s="85" t="s">
+      <c r="F141" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G141" s="86"/>
-      <c r="H141" s="49">
+      <c r="G141" s="70"/>
+      <c r="H141" s="48">
         <v>44772</v>
       </c>
-      <c r="I141" s="46"/>
-      <c r="J141" s="46"/>
-      <c r="K141" s="46"/>
+      <c r="I141" s="45"/>
+      <c r="J141" s="45"/>
+      <c r="K141" s="45"/>
       <c r="L141" s="6"/>
       <c r="M141" s="6"/>
       <c r="N141" s="6"/>
@@ -7082,23 +7079,23 @@
       <c r="AD141" s="6"/>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A142" s="93"/>
-      <c r="B142" s="90"/>
-      <c r="C142" s="53"/>
-      <c r="D142" s="56"/>
-      <c r="E142" s="37">
+      <c r="A142" s="52"/>
+      <c r="B142" s="57"/>
+      <c r="C142" s="54"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="36">
         <v>10</v>
       </c>
-      <c r="F142" s="85" t="s">
+      <c r="F142" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G142" s="86"/>
-      <c r="H142" s="42" t="s">
+      <c r="G142" s="70"/>
+      <c r="H142" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I142" s="46"/>
-      <c r="J142" s="46"/>
-      <c r="K142" s="46"/>
+      <c r="I142" s="45"/>
+      <c r="J142" s="45"/>
+      <c r="K142" s="45"/>
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
       <c r="N142" s="6"/>
@@ -7120,27 +7117,27 @@
       <c r="AD142" s="6"/>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A143" s="93"/>
-      <c r="B143" s="90"/>
-      <c r="C143" s="53"/>
-      <c r="D143" s="56"/>
-      <c r="E143" s="37">
+      <c r="A143" s="52"/>
+      <c r="B143" s="57"/>
+      <c r="C143" s="54"/>
+      <c r="D143" s="60"/>
+      <c r="E143" s="36">
         <v>11</v>
       </c>
-      <c r="F143" s="85" t="s">
+      <c r="F143" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G143" s="86"/>
-      <c r="H143" s="42" t="s">
+      <c r="G143" s="70"/>
+      <c r="H143" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I143" s="46" t="s">
+      <c r="I143" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J143" s="46" t="s">
+      <c r="J143" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="K143" s="46"/>
+      <c r="K143" s="45"/>
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
       <c r="N143" s="6"/>
@@ -7162,27 +7159,27 @@
       <c r="AD143" s="6"/>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A144" s="93"/>
-      <c r="B144" s="90"/>
-      <c r="C144" s="53"/>
-      <c r="D144" s="56"/>
-      <c r="E144" s="36">
+      <c r="A144" s="52"/>
+      <c r="B144" s="57"/>
+      <c r="C144" s="54"/>
+      <c r="D144" s="60"/>
+      <c r="E144" s="35">
         <v>12</v>
       </c>
-      <c r="F144" s="85" t="s">
+      <c r="F144" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G144" s="86"/>
-      <c r="H144" s="42" t="s">
+      <c r="G144" s="70"/>
+      <c r="H144" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I144" s="46" t="s">
+      <c r="I144" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J144" s="46" t="s">
+      <c r="J144" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="K144" s="46"/>
+      <c r="K144" s="45"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
       <c r="N144" s="6"/>
@@ -7204,21 +7201,21 @@
       <c r="AD144" s="6"/>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A145" s="93"/>
-      <c r="B145" s="91"/>
-      <c r="C145" s="53"/>
-      <c r="D145" s="57"/>
-      <c r="E145" s="38">
+      <c r="A145" s="52"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="54"/>
+      <c r="D145" s="61"/>
+      <c r="E145" s="37">
         <v>13</v>
       </c>
-      <c r="F145" s="50" t="s">
+      <c r="F145" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G145" s="51"/>
-      <c r="H145" s="43"/>
-      <c r="I145" s="47"/>
-      <c r="J145" s="47"/>
-      <c r="K145" s="47" t="s">
+      <c r="G145" s="72"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="46"/>
+      <c r="J145" s="46"/>
+      <c r="K145" s="46" t="s">
         <v>7</v>
       </c>
       <c r="L145" s="6"/>
@@ -7242,31 +7239,31 @@
       <c r="AD145" s="6"/>
     </row>
     <row r="146" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="93">
+      <c r="A146" s="52">
         <v>14</v>
       </c>
-      <c r="B146" s="89" t="s">
+      <c r="B146" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C146" s="53"/>
-      <c r="D146" s="55" t="s">
+      <c r="C146" s="54"/>
+      <c r="D146" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="E146" s="35">
+      <c r="E146" s="34">
         <v>1</v>
       </c>
-      <c r="F146" s="77" t="s">
+      <c r="F146" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G146" s="78"/>
-      <c r="H146" s="40"/>
-      <c r="I146" s="44" t="s">
+      <c r="G146" s="63"/>
+      <c r="H146" s="39"/>
+      <c r="I146" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J146" s="44" t="s">
+      <c r="J146" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K146" s="48"/>
+      <c r="K146" s="47"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
       <c r="N146" s="6"/>
@@ -7288,27 +7285,27 @@
       <c r="AD146" s="6"/>
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A147" s="93"/>
-      <c r="B147" s="90"/>
-      <c r="C147" s="53"/>
-      <c r="D147" s="56"/>
-      <c r="E147" s="36">
+      <c r="A147" s="52"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="54"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="35">
         <v>2</v>
       </c>
-      <c r="F147" s="79" t="s">
+      <c r="F147" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G147" s="80"/>
-      <c r="H147" s="41" t="s">
+      <c r="G147" s="65"/>
+      <c r="H147" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I147" s="45" t="s">
+      <c r="I147" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J147" s="45" t="s">
+      <c r="J147" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K147" s="45"/>
+      <c r="K147" s="44"/>
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
@@ -7330,27 +7327,27 @@
       <c r="AD147" s="6"/>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A148" s="93"/>
-      <c r="B148" s="90"/>
-      <c r="C148" s="53"/>
-      <c r="D148" s="56"/>
-      <c r="E148" s="37">
+      <c r="A148" s="52"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="54"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="36">
         <v>3</v>
       </c>
-      <c r="F148" s="82" t="s">
+      <c r="F148" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G148" s="69"/>
-      <c r="H148" s="41" t="s">
+      <c r="G148" s="67"/>
+      <c r="H148" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I148" s="45" t="s">
+      <c r="I148" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J148" s="45" t="s">
+      <c r="J148" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K148" s="45"/>
+      <c r="K148" s="44"/>
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
       <c r="N148" s="6"/>
@@ -7372,23 +7369,23 @@
       <c r="AD148" s="6"/>
     </row>
     <row r="149" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A149" s="93"/>
-      <c r="B149" s="90"/>
-      <c r="C149" s="53"/>
-      <c r="D149" s="56"/>
-      <c r="E149" s="36">
+      <c r="A149" s="52"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="54"/>
+      <c r="D149" s="60"/>
+      <c r="E149" s="35">
         <v>4</v>
       </c>
-      <c r="F149" s="79" t="s">
+      <c r="F149" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G149" s="80"/>
-      <c r="H149" s="41" t="s">
+      <c r="G149" s="65"/>
+      <c r="H149" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I149" s="45"/>
-      <c r="J149" s="45"/>
-      <c r="K149" s="45"/>
+      <c r="I149" s="44"/>
+      <c r="J149" s="44"/>
+      <c r="K149" s="44"/>
       <c r="L149" s="6"/>
       <c r="M149" s="6"/>
       <c r="N149" s="6"/>
@@ -7410,27 +7407,27 @@
       <c r="AD149" s="6"/>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A150" s="93"/>
-      <c r="B150" s="90"/>
-      <c r="C150" s="53"/>
-      <c r="D150" s="56"/>
-      <c r="E150" s="37">
+      <c r="A150" s="52"/>
+      <c r="B150" s="57"/>
+      <c r="C150" s="54"/>
+      <c r="D150" s="60"/>
+      <c r="E150" s="36">
         <v>5</v>
       </c>
-      <c r="F150" s="79" t="s">
+      <c r="F150" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G150" s="81"/>
-      <c r="H150" s="41" t="s">
+      <c r="G150" s="68"/>
+      <c r="H150" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I150" s="45" t="s">
+      <c r="I150" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J150" s="45" t="s">
+      <c r="J150" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K150" s="45"/>
+      <c r="K150" s="44"/>
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
@@ -7452,23 +7449,23 @@
       <c r="AD150" s="6"/>
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A151" s="93"/>
-      <c r="B151" s="90"/>
-      <c r="C151" s="53"/>
-      <c r="D151" s="56"/>
-      <c r="E151" s="37">
+      <c r="A151" s="52"/>
+      <c r="B151" s="57"/>
+      <c r="C151" s="54"/>
+      <c r="D151" s="60"/>
+      <c r="E151" s="36">
         <v>6</v>
       </c>
-      <c r="F151" s="85" t="s">
+      <c r="F151" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G151" s="86"/>
-      <c r="H151" s="42" t="s">
+      <c r="G151" s="70"/>
+      <c r="H151" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I151" s="46"/>
-      <c r="J151" s="46"/>
-      <c r="K151" s="46"/>
+      <c r="I151" s="45"/>
+      <c r="J151" s="45"/>
+      <c r="K151" s="45"/>
       <c r="L151" s="6"/>
       <c r="M151" s="6"/>
       <c r="N151" s="6"/>
@@ -7490,23 +7487,23 @@
       <c r="AD151" s="6"/>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A152" s="93"/>
-      <c r="B152" s="90"/>
-      <c r="C152" s="53"/>
-      <c r="D152" s="56"/>
-      <c r="E152" s="36">
+      <c r="A152" s="52"/>
+      <c r="B152" s="57"/>
+      <c r="C152" s="54"/>
+      <c r="D152" s="60"/>
+      <c r="E152" s="35">
         <v>7</v>
       </c>
-      <c r="F152" s="85" t="s">
+      <c r="F152" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G152" s="86"/>
-      <c r="H152" s="42" t="s">
+      <c r="G152" s="70"/>
+      <c r="H152" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I152" s="46"/>
-      <c r="J152" s="46"/>
-      <c r="K152" s="46"/>
+      <c r="I152" s="45"/>
+      <c r="J152" s="45"/>
+      <c r="K152" s="45"/>
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
       <c r="N152" s="6"/>
@@ -7528,23 +7525,23 @@
       <c r="AD152" s="6"/>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A153" s="93"/>
-      <c r="B153" s="90"/>
-      <c r="C153" s="53"/>
-      <c r="D153" s="56"/>
-      <c r="E153" s="37">
+      <c r="A153" s="52"/>
+      <c r="B153" s="57"/>
+      <c r="C153" s="54"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="36">
         <v>8</v>
       </c>
-      <c r="F153" s="85" t="s">
+      <c r="F153" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="G153" s="86"/>
-      <c r="H153" s="42" t="s">
+      <c r="G153" s="70"/>
+      <c r="H153" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I153" s="46"/>
-      <c r="J153" s="46"/>
-      <c r="K153" s="46"/>
+      <c r="I153" s="45"/>
+      <c r="J153" s="45"/>
+      <c r="K153" s="45"/>
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
       <c r="N153" s="6"/>
@@ -7566,23 +7563,23 @@
       <c r="AD153" s="6"/>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A154" s="93"/>
-      <c r="B154" s="90"/>
-      <c r="C154" s="53"/>
-      <c r="D154" s="56"/>
-      <c r="E154" s="36">
+      <c r="A154" s="52"/>
+      <c r="B154" s="57"/>
+      <c r="C154" s="54"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="35">
         <v>9</v>
       </c>
-      <c r="F154" s="85" t="s">
+      <c r="F154" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G154" s="86"/>
-      <c r="H154" s="49">
+      <c r="G154" s="70"/>
+      <c r="H154" s="48">
         <v>44772</v>
       </c>
-      <c r="I154" s="46"/>
-      <c r="J154" s="46"/>
-      <c r="K154" s="46"/>
+      <c r="I154" s="45"/>
+      <c r="J154" s="45"/>
+      <c r="K154" s="45"/>
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
       <c r="N154" s="6"/>
@@ -7604,23 +7601,23 @@
       <c r="AD154" s="6"/>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A155" s="93"/>
-      <c r="B155" s="90"/>
-      <c r="C155" s="53"/>
-      <c r="D155" s="56"/>
-      <c r="E155" s="37">
+      <c r="A155" s="52"/>
+      <c r="B155" s="57"/>
+      <c r="C155" s="54"/>
+      <c r="D155" s="60"/>
+      <c r="E155" s="36">
         <v>10</v>
       </c>
-      <c r="F155" s="85" t="s">
+      <c r="F155" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G155" s="86"/>
-      <c r="H155" s="42" t="s">
+      <c r="G155" s="70"/>
+      <c r="H155" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I155" s="46"/>
-      <c r="J155" s="46"/>
-      <c r="K155" s="46"/>
+      <c r="I155" s="45"/>
+      <c r="J155" s="45"/>
+      <c r="K155" s="45"/>
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
       <c r="N155" s="6"/>
@@ -7642,27 +7639,27 @@
       <c r="AD155" s="6"/>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A156" s="93"/>
-      <c r="B156" s="90"/>
-      <c r="C156" s="53"/>
-      <c r="D156" s="56"/>
-      <c r="E156" s="37">
+      <c r="A156" s="52"/>
+      <c r="B156" s="57"/>
+      <c r="C156" s="54"/>
+      <c r="D156" s="60"/>
+      <c r="E156" s="36">
         <v>11</v>
       </c>
-      <c r="F156" s="85" t="s">
+      <c r="F156" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G156" s="86"/>
-      <c r="H156" s="42" t="s">
+      <c r="G156" s="70"/>
+      <c r="H156" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I156" s="46" t="s">
+      <c r="I156" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J156" s="46" t="s">
+      <c r="J156" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="K156" s="46"/>
+      <c r="K156" s="45"/>
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
       <c r="N156" s="6"/>
@@ -7684,27 +7681,27 @@
       <c r="AD156" s="6"/>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A157" s="93"/>
-      <c r="B157" s="90"/>
-      <c r="C157" s="53"/>
-      <c r="D157" s="56"/>
-      <c r="E157" s="36">
+      <c r="A157" s="52"/>
+      <c r="B157" s="57"/>
+      <c r="C157" s="54"/>
+      <c r="D157" s="60"/>
+      <c r="E157" s="35">
         <v>12</v>
       </c>
-      <c r="F157" s="85" t="s">
+      <c r="F157" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G157" s="86"/>
-      <c r="H157" s="42" t="s">
+      <c r="G157" s="70"/>
+      <c r="H157" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I157" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="J157" s="46" t="s">
+      <c r="I157" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J157" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="K157" s="46"/>
+      <c r="K157" s="45"/>
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
       <c r="N157" s="6"/>
@@ -7726,22 +7723,22 @@
       <c r="AD157" s="6"/>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A158" s="93"/>
-      <c r="B158" s="91"/>
-      <c r="C158" s="54"/>
-      <c r="D158" s="57"/>
-      <c r="E158" s="38">
+      <c r="A158" s="52"/>
+      <c r="B158" s="58"/>
+      <c r="C158" s="55"/>
+      <c r="D158" s="61"/>
+      <c r="E158" s="37">
         <v>13</v>
       </c>
-      <c r="F158" s="50" t="s">
+      <c r="F158" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G158" s="51"/>
-      <c r="H158" s="43"/>
-      <c r="I158" s="47"/>
-      <c r="J158" s="47"/>
-      <c r="K158" s="39" t="s">
-        <v>8</v>
+      <c r="G158" s="72"/>
+      <c r="H158" s="42"/>
+      <c r="I158" s="46"/>
+      <c r="J158" s="46"/>
+      <c r="K158" s="46" t="s">
+        <v>7</v>
       </c>
       <c r="L158" s="6"/>
       <c r="M158" s="6"/>
@@ -7764,33 +7761,33 @@
       <c r="AD158" s="6"/>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A159" s="93">
+      <c r="A159" s="52">
         <v>15</v>
       </c>
-      <c r="B159" s="89" t="s">
+      <c r="B159" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C159" s="52" t="s">
+      <c r="C159" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D159" s="55" t="s">
+      <c r="D159" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="E159" s="35">
+      <c r="E159" s="34">
         <v>1</v>
       </c>
-      <c r="F159" s="77" t="s">
+      <c r="F159" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G159" s="78"/>
-      <c r="H159" s="40"/>
-      <c r="I159" s="44" t="s">
+      <c r="G159" s="63"/>
+      <c r="H159" s="39"/>
+      <c r="I159" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J159" s="44" t="s">
+      <c r="J159" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K159" s="48"/>
+      <c r="K159" s="47"/>
       <c r="L159" s="6"/>
       <c r="M159" s="6"/>
       <c r="N159" s="6"/>
@@ -7812,27 +7809,27 @@
       <c r="AD159" s="6"/>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A160" s="93"/>
-      <c r="B160" s="90"/>
-      <c r="C160" s="53"/>
-      <c r="D160" s="56"/>
-      <c r="E160" s="36">
+      <c r="A160" s="52"/>
+      <c r="B160" s="57"/>
+      <c r="C160" s="54"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="35">
         <v>2</v>
       </c>
-      <c r="F160" s="79" t="s">
+      <c r="F160" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G160" s="80"/>
-      <c r="H160" s="41" t="s">
+      <c r="G160" s="65"/>
+      <c r="H160" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I160" s="45" t="s">
+      <c r="I160" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J160" s="45" t="s">
+      <c r="J160" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K160" s="45"/>
+      <c r="K160" s="44"/>
       <c r="L160" s="6"/>
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
@@ -7854,27 +7851,27 @@
       <c r="AD160" s="6"/>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A161" s="93"/>
-      <c r="B161" s="90"/>
-      <c r="C161" s="53"/>
-      <c r="D161" s="56"/>
-      <c r="E161" s="37">
+      <c r="A161" s="52"/>
+      <c r="B161" s="57"/>
+      <c r="C161" s="54"/>
+      <c r="D161" s="60"/>
+      <c r="E161" s="36">
         <v>3</v>
       </c>
-      <c r="F161" s="82" t="s">
+      <c r="F161" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G161" s="69"/>
-      <c r="H161" s="41" t="s">
+      <c r="G161" s="67"/>
+      <c r="H161" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I161" s="45" t="s">
+      <c r="I161" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J161" s="45" t="s">
+      <c r="J161" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K161" s="45"/>
+      <c r="K161" s="44"/>
       <c r="L161" s="6"/>
       <c r="M161" s="6"/>
       <c r="N161" s="6"/>
@@ -7896,23 +7893,23 @@
       <c r="AD161" s="6"/>
     </row>
     <row r="162" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A162" s="93"/>
-      <c r="B162" s="90"/>
-      <c r="C162" s="53"/>
-      <c r="D162" s="56"/>
-      <c r="E162" s="36">
+      <c r="A162" s="52"/>
+      <c r="B162" s="57"/>
+      <c r="C162" s="54"/>
+      <c r="D162" s="60"/>
+      <c r="E162" s="35">
         <v>4</v>
       </c>
-      <c r="F162" s="79" t="s">
+      <c r="F162" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G162" s="80"/>
-      <c r="H162" s="41" t="s">
+      <c r="G162" s="65"/>
+      <c r="H162" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I162" s="45"/>
-      <c r="J162" s="45"/>
-      <c r="K162" s="45"/>
+      <c r="I162" s="44"/>
+      <c r="J162" s="44"/>
+      <c r="K162" s="44"/>
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
       <c r="N162" s="6"/>
@@ -7934,27 +7931,27 @@
       <c r="AD162" s="6"/>
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A163" s="93"/>
-      <c r="B163" s="90"/>
-      <c r="C163" s="53"/>
-      <c r="D163" s="56"/>
-      <c r="E163" s="37">
+      <c r="A163" s="52"/>
+      <c r="B163" s="57"/>
+      <c r="C163" s="54"/>
+      <c r="D163" s="60"/>
+      <c r="E163" s="36">
         <v>5</v>
       </c>
-      <c r="F163" s="79" t="s">
+      <c r="F163" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G163" s="81"/>
-      <c r="H163" s="41" t="s">
+      <c r="G163" s="68"/>
+      <c r="H163" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I163" s="45" t="s">
+      <c r="I163" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J163" s="45" t="s">
+      <c r="J163" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K163" s="45"/>
+      <c r="K163" s="44"/>
       <c r="L163" s="6"/>
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
@@ -7976,23 +7973,23 @@
       <c r="AD163" s="6"/>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A164" s="93"/>
-      <c r="B164" s="90"/>
-      <c r="C164" s="53"/>
-      <c r="D164" s="56"/>
-      <c r="E164" s="37">
+      <c r="A164" s="52"/>
+      <c r="B164" s="57"/>
+      <c r="C164" s="54"/>
+      <c r="D164" s="60"/>
+      <c r="E164" s="36">
         <v>6</v>
       </c>
-      <c r="F164" s="85" t="s">
+      <c r="F164" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G164" s="86"/>
-      <c r="H164" s="42" t="s">
+      <c r="G164" s="70"/>
+      <c r="H164" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I164" s="46"/>
-      <c r="J164" s="46"/>
-      <c r="K164" s="46"/>
+      <c r="I164" s="45"/>
+      <c r="J164" s="45"/>
+      <c r="K164" s="45"/>
       <c r="L164" s="6"/>
       <c r="M164" s="6"/>
       <c r="N164" s="6"/>
@@ -8014,23 +8011,23 @@
       <c r="AD164" s="6"/>
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A165" s="93"/>
-      <c r="B165" s="90"/>
-      <c r="C165" s="53"/>
-      <c r="D165" s="56"/>
-      <c r="E165" s="36">
+      <c r="A165" s="52"/>
+      <c r="B165" s="57"/>
+      <c r="C165" s="54"/>
+      <c r="D165" s="60"/>
+      <c r="E165" s="35">
         <v>7</v>
       </c>
-      <c r="F165" s="85" t="s">
+      <c r="F165" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G165" s="86"/>
-      <c r="H165" s="42" t="s">
+      <c r="G165" s="70"/>
+      <c r="H165" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I165" s="46"/>
-      <c r="J165" s="46"/>
-      <c r="K165" s="46"/>
+      <c r="I165" s="45"/>
+      <c r="J165" s="45"/>
+      <c r="K165" s="45"/>
       <c r="L165" s="6"/>
       <c r="M165" s="6"/>
       <c r="N165" s="6"/>
@@ -8052,23 +8049,23 @@
       <c r="AD165" s="6"/>
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A166" s="93"/>
-      <c r="B166" s="90"/>
-      <c r="C166" s="53"/>
-      <c r="D166" s="56"/>
-      <c r="E166" s="37">
+      <c r="A166" s="52"/>
+      <c r="B166" s="57"/>
+      <c r="C166" s="54"/>
+      <c r="D166" s="60"/>
+      <c r="E166" s="36">
         <v>8</v>
       </c>
-      <c r="F166" s="85" t="s">
+      <c r="F166" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G166" s="86"/>
-      <c r="H166" s="42" t="s">
+      <c r="G166" s="70"/>
+      <c r="H166" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I166" s="46"/>
-      <c r="J166" s="46"/>
-      <c r="K166" s="46"/>
+      <c r="I166" s="45"/>
+      <c r="J166" s="45"/>
+      <c r="K166" s="45"/>
       <c r="L166" s="6"/>
       <c r="M166" s="6"/>
       <c r="N166" s="6"/>
@@ -8090,23 +8087,23 @@
       <c r="AD166" s="6"/>
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A167" s="93"/>
-      <c r="B167" s="90"/>
-      <c r="C167" s="53"/>
-      <c r="D167" s="56"/>
-      <c r="E167" s="36">
+      <c r="A167" s="52"/>
+      <c r="B167" s="57"/>
+      <c r="C167" s="54"/>
+      <c r="D167" s="60"/>
+      <c r="E167" s="35">
         <v>9</v>
       </c>
-      <c r="F167" s="85" t="s">
+      <c r="F167" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G167" s="86"/>
-      <c r="H167" s="49">
+      <c r="G167" s="70"/>
+      <c r="H167" s="48">
         <v>44772</v>
       </c>
-      <c r="I167" s="46"/>
-      <c r="J167" s="46"/>
-      <c r="K167" s="46"/>
+      <c r="I167" s="45"/>
+      <c r="J167" s="45"/>
+      <c r="K167" s="45"/>
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
@@ -8128,23 +8125,23 @@
       <c r="AD167" s="6"/>
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A168" s="93"/>
-      <c r="B168" s="90"/>
-      <c r="C168" s="53"/>
-      <c r="D168" s="56"/>
-      <c r="E168" s="37">
+      <c r="A168" s="52"/>
+      <c r="B168" s="57"/>
+      <c r="C168" s="54"/>
+      <c r="D168" s="60"/>
+      <c r="E168" s="36">
         <v>10</v>
       </c>
-      <c r="F168" s="85" t="s">
+      <c r="F168" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G168" s="86"/>
-      <c r="H168" s="42" t="s">
+      <c r="G168" s="70"/>
+      <c r="H168" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I168" s="46"/>
-      <c r="J168" s="46"/>
-      <c r="K168" s="46"/>
+      <c r="I168" s="45"/>
+      <c r="J168" s="45"/>
+      <c r="K168" s="45"/>
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
@@ -8166,27 +8163,27 @@
       <c r="AD168" s="6"/>
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A169" s="93"/>
-      <c r="B169" s="90"/>
-      <c r="C169" s="53"/>
-      <c r="D169" s="56"/>
-      <c r="E169" s="37">
+      <c r="A169" s="52"/>
+      <c r="B169" s="57"/>
+      <c r="C169" s="54"/>
+      <c r="D169" s="60"/>
+      <c r="E169" s="36">
         <v>11</v>
       </c>
-      <c r="F169" s="85" t="s">
+      <c r="F169" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G169" s="86"/>
-      <c r="H169" s="42" t="s">
+      <c r="G169" s="70"/>
+      <c r="H169" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I169" s="46" t="s">
+      <c r="I169" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J169" s="46" t="s">
+      <c r="J169" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="K169" s="46"/>
+      <c r="K169" s="45"/>
       <c r="L169" s="6"/>
       <c r="M169" s="6"/>
       <c r="N169" s="6"/>
@@ -8208,27 +8205,27 @@
       <c r="AD169" s="6"/>
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A170" s="93"/>
-      <c r="B170" s="90"/>
-      <c r="C170" s="53"/>
-      <c r="D170" s="56"/>
-      <c r="E170" s="36">
+      <c r="A170" s="52"/>
+      <c r="B170" s="57"/>
+      <c r="C170" s="54"/>
+      <c r="D170" s="60"/>
+      <c r="E170" s="35">
         <v>12</v>
       </c>
-      <c r="F170" s="85" t="s">
+      <c r="F170" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G170" s="86"/>
-      <c r="H170" s="42" t="s">
+      <c r="G170" s="70"/>
+      <c r="H170" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I170" s="46" t="s">
+      <c r="I170" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J170" s="46" t="s">
+      <c r="J170" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="K170" s="46"/>
+      <c r="K170" s="45"/>
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
       <c r="N170" s="6"/>
@@ -8250,21 +8247,21 @@
       <c r="AD170" s="6"/>
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A171" s="93"/>
-      <c r="B171" s="91"/>
-      <c r="C171" s="53"/>
-      <c r="D171" s="57"/>
-      <c r="E171" s="38">
+      <c r="A171" s="52"/>
+      <c r="B171" s="58"/>
+      <c r="C171" s="54"/>
+      <c r="D171" s="61"/>
+      <c r="E171" s="37">
         <v>13</v>
       </c>
-      <c r="F171" s="50" t="s">
+      <c r="F171" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G171" s="51"/>
-      <c r="H171" s="43"/>
-      <c r="I171" s="47"/>
-      <c r="J171" s="47"/>
-      <c r="K171" s="47" t="s">
+      <c r="G171" s="72"/>
+      <c r="H171" s="42"/>
+      <c r="I171" s="46"/>
+      <c r="J171" s="46"/>
+      <c r="K171" s="46" t="s">
         <v>7</v>
       </c>
       <c r="L171" s="6"/>
@@ -8288,31 +8285,31 @@
       <c r="AD171" s="6"/>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A172" s="93">
+      <c r="A172" s="52">
         <v>16</v>
       </c>
-      <c r="B172" s="89" t="s">
+      <c r="B172" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C172" s="53"/>
-      <c r="D172" s="55" t="s">
+      <c r="C172" s="54"/>
+      <c r="D172" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E172" s="35">
+      <c r="E172" s="34">
         <v>1</v>
       </c>
-      <c r="F172" s="77" t="s">
+      <c r="F172" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G172" s="78"/>
-      <c r="H172" s="40"/>
-      <c r="I172" s="44" t="s">
+      <c r="G172" s="63"/>
+      <c r="H172" s="39"/>
+      <c r="I172" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J172" s="44" t="s">
+      <c r="J172" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K172" s="48"/>
+      <c r="K172" s="47"/>
       <c r="L172" s="6"/>
       <c r="M172" s="6"/>
       <c r="N172" s="6"/>
@@ -8334,27 +8331,27 @@
       <c r="AD172" s="6"/>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A173" s="93"/>
-      <c r="B173" s="90"/>
-      <c r="C173" s="53"/>
-      <c r="D173" s="56"/>
-      <c r="E173" s="36">
+      <c r="A173" s="52"/>
+      <c r="B173" s="57"/>
+      <c r="C173" s="54"/>
+      <c r="D173" s="60"/>
+      <c r="E173" s="35">
         <v>2</v>
       </c>
-      <c r="F173" s="79" t="s">
+      <c r="F173" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G173" s="80"/>
-      <c r="H173" s="41" t="s">
+      <c r="G173" s="65"/>
+      <c r="H173" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I173" s="45" t="s">
+      <c r="I173" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J173" s="45" t="s">
+      <c r="J173" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K173" s="45"/>
+      <c r="K173" s="44"/>
       <c r="L173" s="6"/>
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
@@ -8376,27 +8373,27 @@
       <c r="AD173" s="6"/>
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A174" s="93"/>
-      <c r="B174" s="90"/>
-      <c r="C174" s="53"/>
-      <c r="D174" s="56"/>
-      <c r="E174" s="37">
+      <c r="A174" s="52"/>
+      <c r="B174" s="57"/>
+      <c r="C174" s="54"/>
+      <c r="D174" s="60"/>
+      <c r="E174" s="36">
         <v>3</v>
       </c>
-      <c r="F174" s="82" t="s">
+      <c r="F174" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G174" s="69"/>
-      <c r="H174" s="41" t="s">
+      <c r="G174" s="67"/>
+      <c r="H174" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I174" s="45" t="s">
+      <c r="I174" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J174" s="45" t="s">
+      <c r="J174" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K174" s="45"/>
+      <c r="K174" s="44"/>
       <c r="L174" s="6"/>
       <c r="M174" s="6"/>
       <c r="N174" s="6"/>
@@ -8418,23 +8415,23 @@
       <c r="AD174" s="6"/>
     </row>
     <row r="175" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A175" s="93"/>
-      <c r="B175" s="90"/>
-      <c r="C175" s="53"/>
-      <c r="D175" s="56"/>
-      <c r="E175" s="36">
+      <c r="A175" s="52"/>
+      <c r="B175" s="57"/>
+      <c r="C175" s="54"/>
+      <c r="D175" s="60"/>
+      <c r="E175" s="35">
         <v>4</v>
       </c>
-      <c r="F175" s="79" t="s">
+      <c r="F175" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G175" s="80"/>
-      <c r="H175" s="41" t="s">
+      <c r="G175" s="65"/>
+      <c r="H175" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I175" s="45"/>
-      <c r="J175" s="45"/>
-      <c r="K175" s="45"/>
+      <c r="I175" s="44"/>
+      <c r="J175" s="44"/>
+      <c r="K175" s="44"/>
       <c r="L175" s="6"/>
       <c r="M175" s="6"/>
       <c r="N175" s="6"/>
@@ -8456,27 +8453,27 @@
       <c r="AD175" s="6"/>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A176" s="93"/>
-      <c r="B176" s="90"/>
-      <c r="C176" s="53"/>
-      <c r="D176" s="56"/>
-      <c r="E176" s="37">
+      <c r="A176" s="52"/>
+      <c r="B176" s="57"/>
+      <c r="C176" s="54"/>
+      <c r="D176" s="60"/>
+      <c r="E176" s="36">
         <v>5</v>
       </c>
-      <c r="F176" s="79" t="s">
+      <c r="F176" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G176" s="81"/>
-      <c r="H176" s="41" t="s">
+      <c r="G176" s="68"/>
+      <c r="H176" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I176" s="45" t="s">
+      <c r="I176" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J176" s="45" t="s">
+      <c r="J176" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K176" s="45"/>
+      <c r="K176" s="44"/>
       <c r="L176" s="6"/>
       <c r="M176" s="6"/>
       <c r="N176" s="6"/>
@@ -8498,23 +8495,23 @@
       <c r="AD176" s="6"/>
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A177" s="93"/>
-      <c r="B177" s="90"/>
-      <c r="C177" s="53"/>
-      <c r="D177" s="56"/>
-      <c r="E177" s="37">
+      <c r="A177" s="52"/>
+      <c r="B177" s="57"/>
+      <c r="C177" s="54"/>
+      <c r="D177" s="60"/>
+      <c r="E177" s="36">
         <v>6</v>
       </c>
-      <c r="F177" s="85" t="s">
+      <c r="F177" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G177" s="86"/>
-      <c r="H177" s="42" t="s">
+      <c r="G177" s="70"/>
+      <c r="H177" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I177" s="46"/>
-      <c r="J177" s="46"/>
-      <c r="K177" s="46"/>
+      <c r="I177" s="45"/>
+      <c r="J177" s="45"/>
+      <c r="K177" s="45"/>
       <c r="L177" s="6"/>
       <c r="M177" s="6"/>
       <c r="N177" s="6"/>
@@ -8536,23 +8533,23 @@
       <c r="AD177" s="6"/>
     </row>
     <row r="178" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A178" s="93"/>
-      <c r="B178" s="90"/>
-      <c r="C178" s="53"/>
-      <c r="D178" s="56"/>
-      <c r="E178" s="36">
+      <c r="A178" s="52"/>
+      <c r="B178" s="57"/>
+      <c r="C178" s="54"/>
+      <c r="D178" s="60"/>
+      <c r="E178" s="35">
         <v>7</v>
       </c>
-      <c r="F178" s="85" t="s">
+      <c r="F178" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G178" s="86"/>
-      <c r="H178" s="42" t="s">
+      <c r="G178" s="70"/>
+      <c r="H178" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I178" s="46"/>
-      <c r="J178" s="46"/>
-      <c r="K178" s="46"/>
+      <c r="I178" s="45"/>
+      <c r="J178" s="45"/>
+      <c r="K178" s="45"/>
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
       <c r="N178" s="6"/>
@@ -8574,23 +8571,23 @@
       <c r="AD178" s="6"/>
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A179" s="93"/>
-      <c r="B179" s="90"/>
-      <c r="C179" s="53"/>
-      <c r="D179" s="56"/>
-      <c r="E179" s="37">
+      <c r="A179" s="52"/>
+      <c r="B179" s="57"/>
+      <c r="C179" s="54"/>
+      <c r="D179" s="60"/>
+      <c r="E179" s="36">
         <v>8</v>
       </c>
-      <c r="F179" s="85" t="s">
+      <c r="F179" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G179" s="86"/>
-      <c r="H179" s="42" t="s">
+      <c r="G179" s="70"/>
+      <c r="H179" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I179" s="46"/>
-      <c r="J179" s="46"/>
-      <c r="K179" s="46"/>
+      <c r="I179" s="45"/>
+      <c r="J179" s="45"/>
+      <c r="K179" s="45"/>
       <c r="L179" s="6"/>
       <c r="M179" s="6"/>
       <c r="N179" s="6"/>
@@ -8612,23 +8609,23 @@
       <c r="AD179" s="6"/>
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A180" s="93"/>
-      <c r="B180" s="90"/>
-      <c r="C180" s="53"/>
-      <c r="D180" s="56"/>
-      <c r="E180" s="36">
+      <c r="A180" s="52"/>
+      <c r="B180" s="57"/>
+      <c r="C180" s="54"/>
+      <c r="D180" s="60"/>
+      <c r="E180" s="35">
         <v>9</v>
       </c>
-      <c r="F180" s="85" t="s">
+      <c r="F180" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G180" s="86"/>
-      <c r="H180" s="49">
+      <c r="G180" s="70"/>
+      <c r="H180" s="48">
         <v>35276</v>
       </c>
-      <c r="I180" s="46"/>
-      <c r="J180" s="46"/>
-      <c r="K180" s="46"/>
+      <c r="I180" s="45"/>
+      <c r="J180" s="45"/>
+      <c r="K180" s="45"/>
       <c r="L180" s="6"/>
       <c r="M180" s="6"/>
       <c r="N180" s="6"/>
@@ -8650,23 +8647,23 @@
       <c r="AD180" s="6"/>
     </row>
     <row r="181" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A181" s="93"/>
-      <c r="B181" s="90"/>
-      <c r="C181" s="53"/>
-      <c r="D181" s="56"/>
-      <c r="E181" s="37">
+      <c r="A181" s="52"/>
+      <c r="B181" s="57"/>
+      <c r="C181" s="54"/>
+      <c r="D181" s="60"/>
+      <c r="E181" s="36">
         <v>10</v>
       </c>
-      <c r="F181" s="85" t="s">
+      <c r="F181" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G181" s="86"/>
-      <c r="H181" s="42" t="s">
+      <c r="G181" s="70"/>
+      <c r="H181" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I181" s="46"/>
-      <c r="J181" s="46"/>
-      <c r="K181" s="46"/>
+      <c r="I181" s="45"/>
+      <c r="J181" s="45"/>
+      <c r="K181" s="45"/>
       <c r="L181" s="6"/>
       <c r="M181" s="6"/>
       <c r="N181" s="6"/>
@@ -8688,27 +8685,27 @@
       <c r="AD181" s="6"/>
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A182" s="93"/>
-      <c r="B182" s="90"/>
-      <c r="C182" s="53"/>
-      <c r="D182" s="56"/>
-      <c r="E182" s="37">
+      <c r="A182" s="52"/>
+      <c r="B182" s="57"/>
+      <c r="C182" s="54"/>
+      <c r="D182" s="60"/>
+      <c r="E182" s="36">
         <v>11</v>
       </c>
-      <c r="F182" s="85" t="s">
+      <c r="F182" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G182" s="86"/>
-      <c r="H182" s="42" t="s">
+      <c r="G182" s="70"/>
+      <c r="H182" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I182" s="46" t="s">
+      <c r="I182" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="J182" s="46" t="s">
+      <c r="J182" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="K182" s="46"/>
+      <c r="K182" s="45"/>
       <c r="L182" s="6"/>
       <c r="M182" s="6"/>
       <c r="N182" s="6"/>
@@ -8730,27 +8727,27 @@
       <c r="AD182" s="6"/>
     </row>
     <row r="183" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A183" s="93"/>
-      <c r="B183" s="90"/>
-      <c r="C183" s="53"/>
-      <c r="D183" s="56"/>
-      <c r="E183" s="36">
+      <c r="A183" s="52"/>
+      <c r="B183" s="57"/>
+      <c r="C183" s="54"/>
+      <c r="D183" s="60"/>
+      <c r="E183" s="35">
         <v>12</v>
       </c>
-      <c r="F183" s="85" t="s">
+      <c r="F183" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G183" s="86"/>
-      <c r="H183" s="42" t="s">
+      <c r="G183" s="70"/>
+      <c r="H183" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I183" s="46" t="s">
+      <c r="I183" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="J183" s="46" t="s">
+      <c r="J183" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="K183" s="46"/>
+      <c r="K183" s="45"/>
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
@@ -8772,22 +8769,22 @@
       <c r="AD183" s="6"/>
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A184" s="93"/>
-      <c r="B184" s="91"/>
-      <c r="C184" s="53"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="38">
+      <c r="A184" s="52"/>
+      <c r="B184" s="58"/>
+      <c r="C184" s="54"/>
+      <c r="D184" s="61"/>
+      <c r="E184" s="37">
         <v>13</v>
       </c>
-      <c r="F184" s="50" t="s">
+      <c r="F184" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G184" s="51"/>
-      <c r="H184" s="43"/>
-      <c r="I184" s="47"/>
-      <c r="J184" s="47"/>
-      <c r="K184" s="47" t="s">
-        <v>7</v>
+      <c r="G184" s="72"/>
+      <c r="H184" s="42"/>
+      <c r="I184" s="46"/>
+      <c r="J184" s="46"/>
+      <c r="K184" s="38" t="s">
+        <v>8</v>
       </c>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
@@ -8810,31 +8807,31 @@
       <c r="AD184" s="6"/>
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A185" s="93">
+      <c r="A185" s="52">
         <v>17</v>
       </c>
-      <c r="B185" s="89" t="s">
+      <c r="B185" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C185" s="53"/>
-      <c r="D185" s="55" t="s">
+      <c r="C185" s="54"/>
+      <c r="D185" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="E185" s="35">
+      <c r="E185" s="34">
         <v>1</v>
       </c>
-      <c r="F185" s="77" t="s">
+      <c r="F185" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G185" s="78"/>
-      <c r="H185" s="40"/>
-      <c r="I185" s="44" t="s">
+      <c r="G185" s="63"/>
+      <c r="H185" s="39"/>
+      <c r="I185" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J185" s="44" t="s">
+      <c r="J185" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K185" s="48"/>
+      <c r="K185" s="47"/>
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
@@ -8856,27 +8853,27 @@
       <c r="AD185" s="6"/>
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A186" s="93"/>
-      <c r="B186" s="90"/>
-      <c r="C186" s="53"/>
-      <c r="D186" s="56"/>
-      <c r="E186" s="36">
+      <c r="A186" s="52"/>
+      <c r="B186" s="57"/>
+      <c r="C186" s="54"/>
+      <c r="D186" s="60"/>
+      <c r="E186" s="35">
         <v>2</v>
       </c>
-      <c r="F186" s="79" t="s">
+      <c r="F186" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G186" s="80"/>
-      <c r="H186" s="41" t="s">
+      <c r="G186" s="65"/>
+      <c r="H186" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I186" s="45" t="s">
+      <c r="I186" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J186" s="45" t="s">
+      <c r="J186" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K186" s="45"/>
+      <c r="K186" s="44"/>
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
       <c r="N186" s="6"/>
@@ -8898,27 +8895,27 @@
       <c r="AD186" s="6"/>
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A187" s="93"/>
-      <c r="B187" s="90"/>
-      <c r="C187" s="53"/>
-      <c r="D187" s="56"/>
-      <c r="E187" s="37">
+      <c r="A187" s="52"/>
+      <c r="B187" s="57"/>
+      <c r="C187" s="54"/>
+      <c r="D187" s="60"/>
+      <c r="E187" s="36">
         <v>3</v>
       </c>
-      <c r="F187" s="82" t="s">
+      <c r="F187" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G187" s="69"/>
-      <c r="H187" s="41" t="s">
+      <c r="G187" s="67"/>
+      <c r="H187" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I187" s="45" t="s">
+      <c r="I187" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J187" s="45" t="s">
+      <c r="J187" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K187" s="45"/>
+      <c r="K187" s="44"/>
       <c r="L187" s="6"/>
       <c r="M187" s="6"/>
       <c r="N187" s="6"/>
@@ -8940,23 +8937,23 @@
       <c r="AD187" s="6"/>
     </row>
     <row r="188" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A188" s="93"/>
-      <c r="B188" s="90"/>
-      <c r="C188" s="53"/>
-      <c r="D188" s="56"/>
-      <c r="E188" s="36">
+      <c r="A188" s="52"/>
+      <c r="B188" s="57"/>
+      <c r="C188" s="54"/>
+      <c r="D188" s="60"/>
+      <c r="E188" s="35">
         <v>4</v>
       </c>
-      <c r="F188" s="79" t="s">
+      <c r="F188" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G188" s="80"/>
-      <c r="H188" s="41" t="s">
+      <c r="G188" s="65"/>
+      <c r="H188" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I188" s="45"/>
-      <c r="J188" s="45"/>
-      <c r="K188" s="45"/>
+      <c r="I188" s="44"/>
+      <c r="J188" s="44"/>
+      <c r="K188" s="44"/>
       <c r="L188" s="6"/>
       <c r="M188" s="6"/>
       <c r="N188" s="6"/>
@@ -8978,27 +8975,27 @@
       <c r="AD188" s="6"/>
     </row>
     <row r="189" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A189" s="93"/>
-      <c r="B189" s="90"/>
-      <c r="C189" s="53"/>
-      <c r="D189" s="56"/>
-      <c r="E189" s="37">
+      <c r="A189" s="52"/>
+      <c r="B189" s="57"/>
+      <c r="C189" s="54"/>
+      <c r="D189" s="60"/>
+      <c r="E189" s="36">
         <v>5</v>
       </c>
-      <c r="F189" s="79" t="s">
+      <c r="F189" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G189" s="81"/>
-      <c r="H189" s="41" t="s">
+      <c r="G189" s="68"/>
+      <c r="H189" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I189" s="45" t="s">
+      <c r="I189" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J189" s="45" t="s">
+      <c r="J189" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K189" s="45"/>
+      <c r="K189" s="44"/>
       <c r="L189" s="6"/>
       <c r="M189" s="6"/>
       <c r="N189" s="6"/>
@@ -9020,23 +9017,23 @@
       <c r="AD189" s="6"/>
     </row>
     <row r="190" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A190" s="93"/>
-      <c r="B190" s="90"/>
-      <c r="C190" s="53"/>
-      <c r="D190" s="56"/>
-      <c r="E190" s="37">
+      <c r="A190" s="52"/>
+      <c r="B190" s="57"/>
+      <c r="C190" s="54"/>
+      <c r="D190" s="60"/>
+      <c r="E190" s="36">
         <v>6</v>
       </c>
-      <c r="F190" s="85" t="s">
+      <c r="F190" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G190" s="86"/>
-      <c r="H190" s="42" t="s">
+      <c r="G190" s="70"/>
+      <c r="H190" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I190" s="46"/>
-      <c r="J190" s="46"/>
-      <c r="K190" s="46"/>
+      <c r="I190" s="45"/>
+      <c r="J190" s="45"/>
+      <c r="K190" s="45"/>
       <c r="L190" s="6"/>
       <c r="M190" s="6"/>
       <c r="N190" s="6"/>
@@ -9058,23 +9055,23 @@
       <c r="AD190" s="6"/>
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A191" s="93"/>
-      <c r="B191" s="90"/>
-      <c r="C191" s="53"/>
-      <c r="D191" s="56"/>
-      <c r="E191" s="36">
+      <c r="A191" s="52"/>
+      <c r="B191" s="57"/>
+      <c r="C191" s="54"/>
+      <c r="D191" s="60"/>
+      <c r="E191" s="35">
         <v>7</v>
       </c>
-      <c r="F191" s="85" t="s">
+      <c r="F191" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G191" s="86"/>
-      <c r="H191" s="42" t="s">
+      <c r="G191" s="70"/>
+      <c r="H191" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I191" s="46"/>
-      <c r="J191" s="46"/>
-      <c r="K191" s="46"/>
+      <c r="I191" s="45"/>
+      <c r="J191" s="45"/>
+      <c r="K191" s="45"/>
       <c r="L191" s="6"/>
       <c r="M191" s="6"/>
       <c r="N191" s="6"/>
@@ -9096,23 +9093,23 @@
       <c r="AD191" s="6"/>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A192" s="93"/>
-      <c r="B192" s="90"/>
-      <c r="C192" s="53"/>
-      <c r="D192" s="56"/>
-      <c r="E192" s="37">
+      <c r="A192" s="52"/>
+      <c r="B192" s="57"/>
+      <c r="C192" s="54"/>
+      <c r="D192" s="60"/>
+      <c r="E192" s="36">
         <v>8</v>
       </c>
-      <c r="F192" s="85" t="s">
+      <c r="F192" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G192" s="86"/>
-      <c r="H192" s="42" t="s">
+      <c r="G192" s="70"/>
+      <c r="H192" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I192" s="46"/>
-      <c r="J192" s="46"/>
-      <c r="K192" s="46"/>
+      <c r="I192" s="45"/>
+      <c r="J192" s="45"/>
+      <c r="K192" s="45"/>
       <c r="L192" s="6"/>
       <c r="M192" s="6"/>
       <c r="N192" s="6"/>
@@ -9134,21 +9131,21 @@
       <c r="AD192" s="6"/>
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A193" s="93"/>
-      <c r="B193" s="90"/>
-      <c r="C193" s="53"/>
-      <c r="D193" s="56"/>
-      <c r="E193" s="36">
+      <c r="A193" s="52"/>
+      <c r="B193" s="57"/>
+      <c r="C193" s="54"/>
+      <c r="D193" s="60"/>
+      <c r="E193" s="35">
         <v>9</v>
       </c>
-      <c r="F193" s="85" t="s">
+      <c r="F193" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G193" s="86"/>
-      <c r="H193" s="49"/>
-      <c r="I193" s="46"/>
-      <c r="J193" s="46"/>
-      <c r="K193" s="46"/>
+      <c r="G193" s="70"/>
+      <c r="H193" s="48"/>
+      <c r="I193" s="45"/>
+      <c r="J193" s="45"/>
+      <c r="K193" s="45"/>
       <c r="L193" s="6"/>
       <c r="M193" s="6"/>
       <c r="N193" s="6"/>
@@ -9170,23 +9167,23 @@
       <c r="AD193" s="6"/>
     </row>
     <row r="194" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A194" s="93"/>
-      <c r="B194" s="90"/>
-      <c r="C194" s="53"/>
-      <c r="D194" s="56"/>
-      <c r="E194" s="37">
+      <c r="A194" s="52"/>
+      <c r="B194" s="57"/>
+      <c r="C194" s="54"/>
+      <c r="D194" s="60"/>
+      <c r="E194" s="36">
         <v>10</v>
       </c>
-      <c r="F194" s="85" t="s">
+      <c r="F194" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G194" s="86"/>
-      <c r="H194" s="42" t="s">
+      <c r="G194" s="70"/>
+      <c r="H194" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I194" s="46"/>
-      <c r="J194" s="46"/>
-      <c r="K194" s="46"/>
+      <c r="I194" s="45"/>
+      <c r="J194" s="45"/>
+      <c r="K194" s="45"/>
       <c r="L194" s="6"/>
       <c r="M194" s="6"/>
       <c r="N194" s="6"/>
@@ -9208,27 +9205,27 @@
       <c r="AD194" s="6"/>
     </row>
     <row r="195" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A195" s="93"/>
-      <c r="B195" s="90"/>
-      <c r="C195" s="53"/>
-      <c r="D195" s="56"/>
-      <c r="E195" s="37">
+      <c r="A195" s="52"/>
+      <c r="B195" s="57"/>
+      <c r="C195" s="54"/>
+      <c r="D195" s="60"/>
+      <c r="E195" s="36">
         <v>11</v>
       </c>
-      <c r="F195" s="85" t="s">
+      <c r="F195" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G195" s="86"/>
-      <c r="H195" s="42" t="s">
+      <c r="G195" s="70"/>
+      <c r="H195" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I195" s="46" t="s">
+      <c r="I195" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="J195" s="46" t="s">
+      <c r="J195" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="K195" s="46"/>
+      <c r="K195" s="45"/>
       <c r="L195" s="6"/>
       <c r="M195" s="6"/>
       <c r="N195" s="6"/>
@@ -9250,27 +9247,27 @@
       <c r="AD195" s="6"/>
     </row>
     <row r="196" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A196" s="93"/>
-      <c r="B196" s="90"/>
-      <c r="C196" s="53"/>
-      <c r="D196" s="56"/>
-      <c r="E196" s="36">
+      <c r="A196" s="52"/>
+      <c r="B196" s="57"/>
+      <c r="C196" s="54"/>
+      <c r="D196" s="60"/>
+      <c r="E196" s="35">
         <v>12</v>
       </c>
-      <c r="F196" s="85" t="s">
+      <c r="F196" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G196" s="86"/>
-      <c r="H196" s="42" t="s">
+      <c r="G196" s="70"/>
+      <c r="H196" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I196" s="46" t="s">
+      <c r="I196" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="J196" s="46" t="s">
+      <c r="J196" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="K196" s="46"/>
+      <c r="K196" s="45"/>
       <c r="L196" s="6"/>
       <c r="M196" s="6"/>
       <c r="N196" s="6"/>
@@ -9292,22 +9289,22 @@
       <c r="AD196" s="6"/>
     </row>
     <row r="197" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A197" s="93"/>
-      <c r="B197" s="91"/>
-      <c r="C197" s="54"/>
-      <c r="D197" s="57"/>
-      <c r="E197" s="38">
+      <c r="A197" s="52"/>
+      <c r="B197" s="58"/>
+      <c r="C197" s="55"/>
+      <c r="D197" s="61"/>
+      <c r="E197" s="37">
         <v>13</v>
       </c>
-      <c r="F197" s="50" t="s">
+      <c r="F197" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G197" s="51"/>
-      <c r="H197" s="43"/>
-      <c r="I197" s="47"/>
-      <c r="J197" s="47"/>
-      <c r="K197" s="39" t="s">
-        <v>8</v>
+      <c r="G197" s="72"/>
+      <c r="H197" s="42"/>
+      <c r="I197" s="46"/>
+      <c r="J197" s="46"/>
+      <c r="K197" s="46" t="s">
+        <v>7</v>
       </c>
       <c r="L197" s="6"/>
       <c r="M197" s="6"/>
@@ -9330,33 +9327,33 @@
       <c r="AD197" s="6"/>
     </row>
     <row r="198" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A198" s="93">
+      <c r="A198" s="52">
         <v>18</v>
       </c>
-      <c r="B198" s="89" t="s">
+      <c r="B198" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C198" s="52" t="s">
+      <c r="C198" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D198" s="55" t="s">
+      <c r="D198" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="E198" s="35">
+      <c r="E198" s="34">
         <v>1</v>
       </c>
-      <c r="F198" s="77" t="s">
+      <c r="F198" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G198" s="78"/>
-      <c r="H198" s="40"/>
-      <c r="I198" s="44" t="s">
+      <c r="G198" s="63"/>
+      <c r="H198" s="39"/>
+      <c r="I198" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J198" s="44" t="s">
+      <c r="J198" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K198" s="48"/>
+      <c r="K198" s="47"/>
       <c r="L198" s="6"/>
       <c r="M198" s="6"/>
       <c r="N198" s="6"/>
@@ -9378,27 +9375,27 @@
       <c r="AD198" s="6"/>
     </row>
     <row r="199" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A199" s="93"/>
-      <c r="B199" s="90"/>
-      <c r="C199" s="53"/>
-      <c r="D199" s="56"/>
-      <c r="E199" s="36">
+      <c r="A199" s="52"/>
+      <c r="B199" s="57"/>
+      <c r="C199" s="54"/>
+      <c r="D199" s="60"/>
+      <c r="E199" s="35">
         <v>2</v>
       </c>
-      <c r="F199" s="79" t="s">
+      <c r="F199" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G199" s="80"/>
-      <c r="H199" s="41" t="s">
+      <c r="G199" s="65"/>
+      <c r="H199" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I199" s="45" t="s">
+      <c r="I199" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J199" s="45" t="s">
+      <c r="J199" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K199" s="45"/>
+      <c r="K199" s="44"/>
       <c r="L199" s="6"/>
       <c r="M199" s="6"/>
       <c r="N199" s="6"/>
@@ -9420,27 +9417,27 @@
       <c r="AD199" s="6"/>
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A200" s="93"/>
-      <c r="B200" s="90"/>
-      <c r="C200" s="53"/>
-      <c r="D200" s="56"/>
-      <c r="E200" s="37">
+      <c r="A200" s="52"/>
+      <c r="B200" s="57"/>
+      <c r="C200" s="54"/>
+      <c r="D200" s="60"/>
+      <c r="E200" s="36">
         <v>3</v>
       </c>
-      <c r="F200" s="82" t="s">
+      <c r="F200" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G200" s="69"/>
-      <c r="H200" s="41" t="s">
+      <c r="G200" s="67"/>
+      <c r="H200" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I200" s="45" t="s">
+      <c r="I200" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J200" s="45" t="s">
+      <c r="J200" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K200" s="45"/>
+      <c r="K200" s="44"/>
       <c r="L200" s="6"/>
       <c r="M200" s="6"/>
       <c r="N200" s="6"/>
@@ -9462,23 +9459,23 @@
       <c r="AD200" s="6"/>
     </row>
     <row r="201" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A201" s="93"/>
-      <c r="B201" s="90"/>
-      <c r="C201" s="53"/>
-      <c r="D201" s="56"/>
-      <c r="E201" s="36">
+      <c r="A201" s="52"/>
+      <c r="B201" s="57"/>
+      <c r="C201" s="54"/>
+      <c r="D201" s="60"/>
+      <c r="E201" s="35">
         <v>4</v>
       </c>
-      <c r="F201" s="79" t="s">
+      <c r="F201" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G201" s="80"/>
-      <c r="H201" s="41" t="s">
+      <c r="G201" s="65"/>
+      <c r="H201" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I201" s="45"/>
-      <c r="J201" s="45"/>
-      <c r="K201" s="45"/>
+      <c r="I201" s="44"/>
+      <c r="J201" s="44"/>
+      <c r="K201" s="44"/>
       <c r="L201" s="6"/>
       <c r="M201" s="6"/>
       <c r="N201" s="6"/>
@@ -9500,27 +9497,27 @@
       <c r="AD201" s="6"/>
     </row>
     <row r="202" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A202" s="93"/>
-      <c r="B202" s="90"/>
-      <c r="C202" s="53"/>
-      <c r="D202" s="56"/>
-      <c r="E202" s="37">
+      <c r="A202" s="52"/>
+      <c r="B202" s="57"/>
+      <c r="C202" s="54"/>
+      <c r="D202" s="60"/>
+      <c r="E202" s="36">
         <v>5</v>
       </c>
-      <c r="F202" s="79" t="s">
+      <c r="F202" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G202" s="81"/>
-      <c r="H202" s="41" t="s">
+      <c r="G202" s="68"/>
+      <c r="H202" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I202" s="45" t="s">
+      <c r="I202" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J202" s="45" t="s">
+      <c r="J202" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K202" s="45"/>
+      <c r="K202" s="44"/>
       <c r="L202" s="6"/>
       <c r="M202" s="6"/>
       <c r="N202" s="6"/>
@@ -9542,23 +9539,23 @@
       <c r="AD202" s="6"/>
     </row>
     <row r="203" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A203" s="93"/>
-      <c r="B203" s="90"/>
-      <c r="C203" s="53"/>
-      <c r="D203" s="56"/>
-      <c r="E203" s="37">
+      <c r="A203" s="52"/>
+      <c r="B203" s="57"/>
+      <c r="C203" s="54"/>
+      <c r="D203" s="60"/>
+      <c r="E203" s="36">
         <v>6</v>
       </c>
-      <c r="F203" s="85" t="s">
+      <c r="F203" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G203" s="86"/>
-      <c r="H203" s="42" t="s">
+      <c r="G203" s="70"/>
+      <c r="H203" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I203" s="46"/>
-      <c r="J203" s="46"/>
-      <c r="K203" s="46"/>
+      <c r="I203" s="45"/>
+      <c r="J203" s="45"/>
+      <c r="K203" s="45"/>
       <c r="L203" s="6"/>
       <c r="M203" s="6"/>
       <c r="N203" s="6"/>
@@ -9580,23 +9577,23 @@
       <c r="AD203" s="6"/>
     </row>
     <row r="204" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A204" s="93"/>
-      <c r="B204" s="90"/>
-      <c r="C204" s="53"/>
-      <c r="D204" s="56"/>
-      <c r="E204" s="36">
+      <c r="A204" s="52"/>
+      <c r="B204" s="57"/>
+      <c r="C204" s="54"/>
+      <c r="D204" s="60"/>
+      <c r="E204" s="35">
         <v>7</v>
       </c>
-      <c r="F204" s="85" t="s">
+      <c r="F204" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G204" s="86"/>
-      <c r="H204" s="42" t="s">
+      <c r="G204" s="70"/>
+      <c r="H204" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I204" s="46"/>
-      <c r="J204" s="46"/>
-      <c r="K204" s="46"/>
+      <c r="I204" s="45"/>
+      <c r="J204" s="45"/>
+      <c r="K204" s="45"/>
       <c r="L204" s="6"/>
       <c r="M204" s="6"/>
       <c r="N204" s="6"/>
@@ -9618,23 +9615,23 @@
       <c r="AD204" s="6"/>
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A205" s="93"/>
-      <c r="B205" s="90"/>
-      <c r="C205" s="53"/>
-      <c r="D205" s="56"/>
-      <c r="E205" s="37">
+      <c r="A205" s="52"/>
+      <c r="B205" s="57"/>
+      <c r="C205" s="54"/>
+      <c r="D205" s="60"/>
+      <c r="E205" s="36">
         <v>8</v>
       </c>
-      <c r="F205" s="85" t="s">
+      <c r="F205" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G205" s="86"/>
-      <c r="H205" s="42" t="s">
+      <c r="G205" s="70"/>
+      <c r="H205" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I205" s="46"/>
-      <c r="J205" s="46"/>
-      <c r="K205" s="46"/>
+      <c r="I205" s="45"/>
+      <c r="J205" s="45"/>
+      <c r="K205" s="45"/>
       <c r="L205" s="6"/>
       <c r="M205" s="6"/>
       <c r="N205" s="6"/>
@@ -9656,23 +9653,23 @@
       <c r="AD205" s="6"/>
     </row>
     <row r="206" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A206" s="93"/>
-      <c r="B206" s="90"/>
-      <c r="C206" s="53"/>
-      <c r="D206" s="56"/>
-      <c r="E206" s="36">
+      <c r="A206" s="52"/>
+      <c r="B206" s="57"/>
+      <c r="C206" s="54"/>
+      <c r="D206" s="60"/>
+      <c r="E206" s="35">
         <v>9</v>
       </c>
-      <c r="F206" s="85" t="s">
+      <c r="F206" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G206" s="86"/>
-      <c r="H206" s="49">
+      <c r="G206" s="70"/>
+      <c r="H206" s="48">
         <v>44772</v>
       </c>
-      <c r="I206" s="46"/>
-      <c r="J206" s="46"/>
-      <c r="K206" s="46"/>
+      <c r="I206" s="45"/>
+      <c r="J206" s="45"/>
+      <c r="K206" s="45"/>
       <c r="L206" s="6"/>
       <c r="M206" s="6"/>
       <c r="N206" s="6"/>
@@ -9694,23 +9691,23 @@
       <c r="AD206" s="6"/>
     </row>
     <row r="207" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A207" s="93"/>
-      <c r="B207" s="90"/>
-      <c r="C207" s="53"/>
-      <c r="D207" s="56"/>
-      <c r="E207" s="37">
+      <c r="A207" s="52"/>
+      <c r="B207" s="57"/>
+      <c r="C207" s="54"/>
+      <c r="D207" s="60"/>
+      <c r="E207" s="36">
         <v>10</v>
       </c>
-      <c r="F207" s="85" t="s">
+      <c r="F207" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G207" s="86"/>
-      <c r="H207" s="42" t="s">
+      <c r="G207" s="70"/>
+      <c r="H207" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I207" s="46"/>
-      <c r="J207" s="46"/>
-      <c r="K207" s="46"/>
+      <c r="I207" s="45"/>
+      <c r="J207" s="45"/>
+      <c r="K207" s="45"/>
       <c r="L207" s="6"/>
       <c r="M207" s="6"/>
       <c r="N207" s="6"/>
@@ -9732,27 +9729,27 @@
       <c r="AD207" s="6"/>
     </row>
     <row r="208" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A208" s="93"/>
-      <c r="B208" s="90"/>
-      <c r="C208" s="53"/>
-      <c r="D208" s="56"/>
-      <c r="E208" s="37">
+      <c r="A208" s="52"/>
+      <c r="B208" s="57"/>
+      <c r="C208" s="54"/>
+      <c r="D208" s="60"/>
+      <c r="E208" s="36">
         <v>11</v>
       </c>
-      <c r="F208" s="85" t="s">
+      <c r="F208" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G208" s="86"/>
-      <c r="H208" s="42" t="s">
+      <c r="G208" s="70"/>
+      <c r="H208" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I208" s="46" t="s">
+      <c r="I208" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J208" s="46" t="s">
+      <c r="J208" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="K208" s="46"/>
+      <c r="K208" s="45"/>
       <c r="L208" s="6"/>
       <c r="M208" s="6"/>
       <c r="N208" s="6"/>
@@ -9774,27 +9771,27 @@
       <c r="AD208" s="6"/>
     </row>
     <row r="209" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A209" s="93"/>
-      <c r="B209" s="90"/>
-      <c r="C209" s="53"/>
-      <c r="D209" s="56"/>
-      <c r="E209" s="36">
+      <c r="A209" s="52"/>
+      <c r="B209" s="57"/>
+      <c r="C209" s="54"/>
+      <c r="D209" s="60"/>
+      <c r="E209" s="35">
         <v>12</v>
       </c>
-      <c r="F209" s="85" t="s">
+      <c r="F209" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G209" s="86"/>
-      <c r="H209" s="42" t="s">
+      <c r="G209" s="70"/>
+      <c r="H209" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I209" s="46" t="s">
+      <c r="I209" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J209" s="46" t="s">
+      <c r="J209" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="K209" s="46"/>
+      <c r="K209" s="45"/>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
       <c r="N209" s="6"/>
@@ -9816,21 +9813,21 @@
       <c r="AD209" s="6"/>
     </row>
     <row r="210" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A210" s="93"/>
-      <c r="B210" s="91"/>
-      <c r="C210" s="53"/>
-      <c r="D210" s="57"/>
-      <c r="E210" s="38">
+      <c r="A210" s="52"/>
+      <c r="B210" s="58"/>
+      <c r="C210" s="54"/>
+      <c r="D210" s="61"/>
+      <c r="E210" s="37">
         <v>13</v>
       </c>
-      <c r="F210" s="50" t="s">
+      <c r="F210" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G210" s="51"/>
-      <c r="H210" s="43"/>
-      <c r="I210" s="47"/>
-      <c r="J210" s="47"/>
-      <c r="K210" s="47" t="s">
+      <c r="G210" s="72"/>
+      <c r="H210" s="42"/>
+      <c r="I210" s="46"/>
+      <c r="J210" s="46"/>
+      <c r="K210" s="46" t="s">
         <v>7</v>
       </c>
       <c r="L210" s="6"/>
@@ -9854,31 +9851,31 @@
       <c r="AD210" s="6"/>
     </row>
     <row r="211" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A211" s="93">
+      <c r="A211" s="52">
         <v>19</v>
       </c>
-      <c r="B211" s="89" t="s">
+      <c r="B211" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C211" s="53"/>
-      <c r="D211" s="55" t="s">
+      <c r="C211" s="54"/>
+      <c r="D211" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E211" s="35">
+      <c r="E211" s="34">
         <v>1</v>
       </c>
-      <c r="F211" s="77" t="s">
+      <c r="F211" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G211" s="78"/>
-      <c r="H211" s="40"/>
-      <c r="I211" s="44" t="s">
+      <c r="G211" s="63"/>
+      <c r="H211" s="39"/>
+      <c r="I211" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J211" s="44" t="s">
+      <c r="J211" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K211" s="48"/>
+      <c r="K211" s="47"/>
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
       <c r="N211" s="6"/>
@@ -9900,27 +9897,27 @@
       <c r="AD211" s="6"/>
     </row>
     <row r="212" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A212" s="93"/>
-      <c r="B212" s="90"/>
-      <c r="C212" s="53"/>
-      <c r="D212" s="56"/>
-      <c r="E212" s="36">
+      <c r="A212" s="52"/>
+      <c r="B212" s="57"/>
+      <c r="C212" s="54"/>
+      <c r="D212" s="60"/>
+      <c r="E212" s="35">
         <v>2</v>
       </c>
-      <c r="F212" s="79" t="s">
+      <c r="F212" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G212" s="80"/>
-      <c r="H212" s="41" t="s">
+      <c r="G212" s="65"/>
+      <c r="H212" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I212" s="45" t="s">
+      <c r="I212" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J212" s="45" t="s">
+      <c r="J212" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K212" s="45"/>
+      <c r="K212" s="44"/>
       <c r="L212" s="6"/>
       <c r="M212" s="6"/>
       <c r="N212" s="6"/>
@@ -9942,27 +9939,27 @@
       <c r="AD212" s="6"/>
     </row>
     <row r="213" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A213" s="93"/>
-      <c r="B213" s="90"/>
-      <c r="C213" s="53"/>
-      <c r="D213" s="56"/>
-      <c r="E213" s="37">
+      <c r="A213" s="52"/>
+      <c r="B213" s="57"/>
+      <c r="C213" s="54"/>
+      <c r="D213" s="60"/>
+      <c r="E213" s="36">
         <v>3</v>
       </c>
-      <c r="F213" s="82" t="s">
+      <c r="F213" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G213" s="69"/>
-      <c r="H213" s="41" t="s">
+      <c r="G213" s="67"/>
+      <c r="H213" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I213" s="45" t="s">
+      <c r="I213" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J213" s="45" t="s">
+      <c r="J213" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K213" s="45"/>
+      <c r="K213" s="44"/>
       <c r="L213" s="6"/>
       <c r="M213" s="6"/>
       <c r="N213" s="6"/>
@@ -9984,23 +9981,23 @@
       <c r="AD213" s="6"/>
     </row>
     <row r="214" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A214" s="93"/>
-      <c r="B214" s="90"/>
-      <c r="C214" s="53"/>
-      <c r="D214" s="56"/>
-      <c r="E214" s="36">
+      <c r="A214" s="52"/>
+      <c r="B214" s="57"/>
+      <c r="C214" s="54"/>
+      <c r="D214" s="60"/>
+      <c r="E214" s="35">
         <v>4</v>
       </c>
-      <c r="F214" s="79" t="s">
+      <c r="F214" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G214" s="80"/>
-      <c r="H214" s="41" t="s">
+      <c r="G214" s="65"/>
+      <c r="H214" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I214" s="45"/>
-      <c r="J214" s="45"/>
-      <c r="K214" s="45"/>
+      <c r="I214" s="44"/>
+      <c r="J214" s="44"/>
+      <c r="K214" s="44"/>
       <c r="L214" s="6"/>
       <c r="M214" s="6"/>
       <c r="N214" s="6"/>
@@ -10022,27 +10019,27 @@
       <c r="AD214" s="6"/>
     </row>
     <row r="215" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A215" s="93"/>
-      <c r="B215" s="90"/>
-      <c r="C215" s="53"/>
-      <c r="D215" s="56"/>
-      <c r="E215" s="37">
+      <c r="A215" s="52"/>
+      <c r="B215" s="57"/>
+      <c r="C215" s="54"/>
+      <c r="D215" s="60"/>
+      <c r="E215" s="36">
         <v>5</v>
       </c>
-      <c r="F215" s="79" t="s">
+      <c r="F215" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G215" s="81"/>
-      <c r="H215" s="41" t="s">
+      <c r="G215" s="68"/>
+      <c r="H215" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I215" s="45" t="s">
+      <c r="I215" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J215" s="45" t="s">
+      <c r="J215" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K215" s="45"/>
+      <c r="K215" s="44"/>
       <c r="L215" s="6"/>
       <c r="M215" s="6"/>
       <c r="N215" s="6"/>
@@ -10064,23 +10061,23 @@
       <c r="AD215" s="6"/>
     </row>
     <row r="216" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A216" s="93"/>
-      <c r="B216" s="90"/>
-      <c r="C216" s="53"/>
-      <c r="D216" s="56"/>
-      <c r="E216" s="37">
+      <c r="A216" s="52"/>
+      <c r="B216" s="57"/>
+      <c r="C216" s="54"/>
+      <c r="D216" s="60"/>
+      <c r="E216" s="36">
         <v>6</v>
       </c>
-      <c r="F216" s="85" t="s">
+      <c r="F216" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G216" s="86"/>
-      <c r="H216" s="42" t="s">
+      <c r="G216" s="70"/>
+      <c r="H216" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I216" s="46"/>
-      <c r="J216" s="46"/>
-      <c r="K216" s="46"/>
+      <c r="I216" s="45"/>
+      <c r="J216" s="45"/>
+      <c r="K216" s="45"/>
       <c r="L216" s="6"/>
       <c r="M216" s="6"/>
       <c r="N216" s="6"/>
@@ -10102,23 +10099,23 @@
       <c r="AD216" s="6"/>
     </row>
     <row r="217" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A217" s="93"/>
-      <c r="B217" s="90"/>
-      <c r="C217" s="53"/>
-      <c r="D217" s="56"/>
-      <c r="E217" s="36">
+      <c r="A217" s="52"/>
+      <c r="B217" s="57"/>
+      <c r="C217" s="54"/>
+      <c r="D217" s="60"/>
+      <c r="E217" s="35">
         <v>7</v>
       </c>
-      <c r="F217" s="85" t="s">
+      <c r="F217" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G217" s="86"/>
-      <c r="H217" s="42" t="s">
+      <c r="G217" s="70"/>
+      <c r="H217" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I217" s="46"/>
-      <c r="J217" s="46"/>
-      <c r="K217" s="46"/>
+      <c r="I217" s="45"/>
+      <c r="J217" s="45"/>
+      <c r="K217" s="45"/>
       <c r="L217" s="6"/>
       <c r="M217" s="6"/>
       <c r="N217" s="6"/>
@@ -10140,23 +10137,23 @@
       <c r="AD217" s="6"/>
     </row>
     <row r="218" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A218" s="93"/>
-      <c r="B218" s="90"/>
-      <c r="C218" s="53"/>
-      <c r="D218" s="56"/>
-      <c r="E218" s="37">
+      <c r="A218" s="52"/>
+      <c r="B218" s="57"/>
+      <c r="C218" s="54"/>
+      <c r="D218" s="60"/>
+      <c r="E218" s="36">
         <v>8</v>
       </c>
-      <c r="F218" s="85" t="s">
+      <c r="F218" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G218" s="86"/>
-      <c r="H218" s="42" t="s">
+      <c r="G218" s="70"/>
+      <c r="H218" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I218" s="46"/>
-      <c r="J218" s="46"/>
-      <c r="K218" s="46"/>
+      <c r="I218" s="45"/>
+      <c r="J218" s="45"/>
+      <c r="K218" s="45"/>
       <c r="L218" s="6"/>
       <c r="M218" s="6"/>
       <c r="N218" s="6"/>
@@ -10178,23 +10175,23 @@
       <c r="AD218" s="6"/>
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A219" s="93"/>
-      <c r="B219" s="90"/>
-      <c r="C219" s="53"/>
-      <c r="D219" s="56"/>
-      <c r="E219" s="36">
+      <c r="A219" s="52"/>
+      <c r="B219" s="57"/>
+      <c r="C219" s="54"/>
+      <c r="D219" s="60"/>
+      <c r="E219" s="35">
         <v>9</v>
       </c>
-      <c r="F219" s="85" t="s">
+      <c r="F219" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G219" s="86"/>
-      <c r="H219" s="49">
+      <c r="G219" s="70"/>
+      <c r="H219" s="48">
         <v>44772</v>
       </c>
-      <c r="I219" s="46"/>
-      <c r="J219" s="46"/>
-      <c r="K219" s="46"/>
+      <c r="I219" s="45"/>
+      <c r="J219" s="45"/>
+      <c r="K219" s="45"/>
       <c r="L219" s="6"/>
       <c r="M219" s="6"/>
       <c r="N219" s="6"/>
@@ -10216,21 +10213,21 @@
       <c r="AD219" s="6"/>
     </row>
     <row r="220" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A220" s="93"/>
-      <c r="B220" s="90"/>
-      <c r="C220" s="53"/>
-      <c r="D220" s="56"/>
-      <c r="E220" s="37">
+      <c r="A220" s="52"/>
+      <c r="B220" s="57"/>
+      <c r="C220" s="54"/>
+      <c r="D220" s="60"/>
+      <c r="E220" s="36">
         <v>10</v>
       </c>
-      <c r="F220" s="85" t="s">
+      <c r="F220" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G220" s="86"/>
-      <c r="H220" s="42"/>
-      <c r="I220" s="46"/>
-      <c r="J220" s="46"/>
-      <c r="K220" s="46"/>
+      <c r="G220" s="70"/>
+      <c r="H220" s="41"/>
+      <c r="I220" s="45"/>
+      <c r="J220" s="45"/>
+      <c r="K220" s="45"/>
       <c r="L220" s="6"/>
       <c r="M220" s="6"/>
       <c r="N220" s="6"/>
@@ -10252,27 +10249,27 @@
       <c r="AD220" s="6"/>
     </row>
     <row r="221" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A221" s="93"/>
-      <c r="B221" s="90"/>
-      <c r="C221" s="53"/>
-      <c r="D221" s="56"/>
-      <c r="E221" s="37">
+      <c r="A221" s="52"/>
+      <c r="B221" s="57"/>
+      <c r="C221" s="54"/>
+      <c r="D221" s="60"/>
+      <c r="E221" s="36">
         <v>11</v>
       </c>
-      <c r="F221" s="85" t="s">
+      <c r="F221" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G221" s="86"/>
-      <c r="H221" s="42" t="s">
+      <c r="G221" s="70"/>
+      <c r="H221" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I221" s="46" t="s">
+      <c r="I221" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J221" s="46" t="s">
+      <c r="J221" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="K221" s="46"/>
+      <c r="K221" s="45"/>
       <c r="L221" s="6"/>
       <c r="M221" s="6"/>
       <c r="N221" s="6"/>
@@ -10294,27 +10291,27 @@
       <c r="AD221" s="6"/>
     </row>
     <row r="222" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A222" s="93"/>
-      <c r="B222" s="90"/>
-      <c r="C222" s="53"/>
-      <c r="D222" s="56"/>
-      <c r="E222" s="36">
+      <c r="A222" s="52"/>
+      <c r="B222" s="57"/>
+      <c r="C222" s="54"/>
+      <c r="D222" s="60"/>
+      <c r="E222" s="35">
         <v>12</v>
       </c>
-      <c r="F222" s="85" t="s">
+      <c r="F222" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G222" s="86"/>
-      <c r="H222" s="42" t="s">
+      <c r="G222" s="70"/>
+      <c r="H222" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I222" s="46" t="s">
+      <c r="I222" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J222" s="46" t="s">
+      <c r="J222" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="K222" s="46"/>
+      <c r="K222" s="45"/>
       <c r="L222" s="6"/>
       <c r="M222" s="6"/>
       <c r="N222" s="6"/>
@@ -10336,21 +10333,21 @@
       <c r="AD222" s="6"/>
     </row>
     <row r="223" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A223" s="93"/>
-      <c r="B223" s="91"/>
-      <c r="C223" s="54"/>
-      <c r="D223" s="57"/>
-      <c r="E223" s="38">
+      <c r="A223" s="52"/>
+      <c r="B223" s="58"/>
+      <c r="C223" s="55"/>
+      <c r="D223" s="61"/>
+      <c r="E223" s="37">
         <v>13</v>
       </c>
-      <c r="F223" s="50" t="s">
+      <c r="F223" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G223" s="51"/>
-      <c r="H223" s="43"/>
-      <c r="I223" s="47"/>
-      <c r="J223" s="47"/>
-      <c r="K223" s="47" t="s">
+      <c r="G223" s="72"/>
+      <c r="H223" s="42"/>
+      <c r="I223" s="46"/>
+      <c r="J223" s="46"/>
+      <c r="K223" s="46" t="s">
         <v>7</v>
       </c>
       <c r="L223" s="6"/>
@@ -10374,11 +10371,11 @@
       <c r="AD223" s="6"/>
     </row>
     <row r="224" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A224" s="94"/>
+      <c r="A224" s="51"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
-      <c r="E224" s="27"/>
+      <c r="E224" s="26"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
       <c r="H224" s="6"/>
@@ -10406,11 +10403,11 @@
       <c r="AD224" s="6"/>
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A225" s="94"/>
+      <c r="A225" s="51"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
-      <c r="E225" s="27"/>
+      <c r="E225" s="26"/>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
       <c r="H225" s="6"/>
@@ -10438,11 +10435,11 @@
       <c r="AD225" s="6"/>
     </row>
     <row r="226" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A226" s="94"/>
+      <c r="A226" s="51"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
-      <c r="E226" s="27"/>
+      <c r="E226" s="26"/>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
       <c r="H226" s="6"/>
@@ -10473,7 +10470,7 @@
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
-      <c r="E227" s="27"/>
+      <c r="E227" s="26"/>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
       <c r="H227" s="6"/>
@@ -10504,7 +10501,7 @@
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
-      <c r="E228" s="27"/>
+      <c r="E228" s="26"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
       <c r="H228" s="6"/>
@@ -10535,7 +10532,7 @@
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
-      <c r="E229" s="27"/>
+      <c r="E229" s="26"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
@@ -10564,140 +10561,132 @@
     </row>
   </sheetData>
   <mergeCells count="287">
-    <mergeCell ref="A159:A171"/>
-    <mergeCell ref="A172:A184"/>
-    <mergeCell ref="A185:A197"/>
-    <mergeCell ref="A198:A210"/>
-    <mergeCell ref="A211:A223"/>
-    <mergeCell ref="C198:C223"/>
-    <mergeCell ref="C159:C197"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A41"/>
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="A68:A80"/>
-    <mergeCell ref="A81:A93"/>
-    <mergeCell ref="A94:A106"/>
-    <mergeCell ref="A107:A119"/>
-    <mergeCell ref="A120:A132"/>
-    <mergeCell ref="A133:A145"/>
-    <mergeCell ref="A146:A158"/>
-    <mergeCell ref="B211:B223"/>
-    <mergeCell ref="D211:D223"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="F215:G215"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="F217:G217"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="F220:G220"/>
-    <mergeCell ref="F221:G221"/>
-    <mergeCell ref="F222:G222"/>
-    <mergeCell ref="F223:G223"/>
-    <mergeCell ref="B198:B210"/>
-    <mergeCell ref="D198:D210"/>
-    <mergeCell ref="F198:G198"/>
-    <mergeCell ref="F199:G199"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="F203:G203"/>
-    <mergeCell ref="F204:G204"/>
-    <mergeCell ref="F205:G205"/>
-    <mergeCell ref="F206:G206"/>
-    <mergeCell ref="F207:G207"/>
-    <mergeCell ref="F208:G208"/>
-    <mergeCell ref="F209:G209"/>
-    <mergeCell ref="F210:G210"/>
-    <mergeCell ref="B185:B197"/>
-    <mergeCell ref="D185:D197"/>
-    <mergeCell ref="F185:G185"/>
-    <mergeCell ref="F186:G186"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="F194:G194"/>
-    <mergeCell ref="F195:G195"/>
-    <mergeCell ref="F196:G196"/>
-    <mergeCell ref="F197:G197"/>
-    <mergeCell ref="B172:B184"/>
-    <mergeCell ref="D172:D184"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="F178:G178"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="F180:G180"/>
-    <mergeCell ref="F181:G181"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="F183:G183"/>
-    <mergeCell ref="F184:G184"/>
-    <mergeCell ref="B159:B171"/>
-    <mergeCell ref="D159:D171"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="F171:G171"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="C107:C158"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="B146:B158"/>
-    <mergeCell ref="D146:D158"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="B133:B145"/>
-    <mergeCell ref="D133:D145"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="D29:D41"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C9:C28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="D42:D54"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="B55:B67"/>
+    <mergeCell ref="D55:D67"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="B68:B80"/>
+    <mergeCell ref="D68:D80"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="C29:C80"/>
+    <mergeCell ref="B94:B106"/>
+    <mergeCell ref="D94:D106"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="B81:B93"/>
+    <mergeCell ref="D81:D93"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
     <mergeCell ref="C81:C106"/>
     <mergeCell ref="B120:B132"/>
     <mergeCell ref="D120:D132"/>
@@ -10722,135 +10711,143 @@
     <mergeCell ref="F111:G111"/>
     <mergeCell ref="F112:G112"/>
     <mergeCell ref="F113:G113"/>
+    <mergeCell ref="B133:B145"/>
+    <mergeCell ref="D133:D145"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="B146:B158"/>
+    <mergeCell ref="D146:D158"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="C107:C158"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F119:G119"/>
     <mergeCell ref="F114:G114"/>
     <mergeCell ref="F115:G115"/>
     <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="C29:C80"/>
-    <mergeCell ref="B94:B106"/>
-    <mergeCell ref="D94:D106"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="B81:B93"/>
-    <mergeCell ref="D81:D93"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="B68:B80"/>
-    <mergeCell ref="D68:D80"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="B55:B67"/>
-    <mergeCell ref="D55:D67"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B42:B54"/>
-    <mergeCell ref="D42:D54"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C9:C28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="D29:D41"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B159:B171"/>
+    <mergeCell ref="D159:D171"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="F171:G171"/>
+    <mergeCell ref="B172:B184"/>
+    <mergeCell ref="D172:D184"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="F183:G183"/>
+    <mergeCell ref="F184:G184"/>
+    <mergeCell ref="D185:D197"/>
+    <mergeCell ref="F185:G185"/>
+    <mergeCell ref="F186:G186"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="F195:G195"/>
+    <mergeCell ref="F196:G196"/>
+    <mergeCell ref="F197:G197"/>
+    <mergeCell ref="D198:D210"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="F199:G199"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="F203:G203"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="F207:G207"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="D211:D223"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="F222:G222"/>
+    <mergeCell ref="F223:G223"/>
+    <mergeCell ref="A159:A171"/>
+    <mergeCell ref="A172:A184"/>
+    <mergeCell ref="A185:A197"/>
+    <mergeCell ref="A198:A210"/>
+    <mergeCell ref="A211:A223"/>
+    <mergeCell ref="C198:C223"/>
+    <mergeCell ref="C159:C197"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A41"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="A68:A80"/>
+    <mergeCell ref="A81:A93"/>
+    <mergeCell ref="A94:A106"/>
+    <mergeCell ref="A107:A119"/>
+    <mergeCell ref="A120:A132"/>
+    <mergeCell ref="A133:A145"/>
+    <mergeCell ref="A146:A158"/>
+    <mergeCell ref="B211:B223"/>
+    <mergeCell ref="B198:B210"/>
+    <mergeCell ref="B185:B197"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
